--- a/v2/京唐港01.07库存.xlsx
+++ b/v2/京唐港01.07库存.xlsx
@@ -1915,6 +1915,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ h:mm"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1964,7 +1967,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2283,13 +2286,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G941"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/v2/京唐港01.07库存.xlsx
+++ b/v2/京唐港01.07库存.xlsx
@@ -1915,9 +1915,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ h:mm"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1963,11 +1960,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2286,13 +2280,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G941"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2309,7 +2303,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2326,7 +2320,7 @@
       <c r="D2" t="s">
         <v>561</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>43104.972222222219</v>
       </c>
       <c r="G2">
@@ -2347,7 +2341,7 @@
       <c r="D3" t="s">
         <v>561</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>43104.4375</v>
       </c>
     </row>
@@ -2364,7 +2358,7 @@
       <c r="D4" t="s">
         <v>561</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>43104.4375</v>
       </c>
     </row>
@@ -2381,7 +2375,7 @@
       <c r="D5" t="s">
         <v>561</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>43103.416666666664</v>
       </c>
     </row>
@@ -2398,7 +2392,7 @@
       <c r="D6" t="s">
         <v>561</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>43102.388888888891</v>
       </c>
     </row>
@@ -2415,7 +2409,7 @@
       <c r="D7" t="s">
         <v>561</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>43102.388888888891</v>
       </c>
     </row>
@@ -2432,7 +2426,7 @@
       <c r="D8" t="s">
         <v>561</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>43101.864583333336</v>
       </c>
     </row>
@@ -2449,7 +2443,7 @@
       <c r="D9" t="s">
         <v>561</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>43101.864583333336</v>
       </c>
     </row>
@@ -2466,7 +2460,7 @@
       <c r="D10" t="s">
         <v>561</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>43101.864583333336</v>
       </c>
     </row>
@@ -2483,7 +2477,7 @@
       <c r="D11" t="s">
         <v>561</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>43102.909722222219</v>
       </c>
     </row>
@@ -2500,7 +2494,7 @@
       <c r="D12" t="s">
         <v>561</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>43102.909722222219</v>
       </c>
     </row>
@@ -2517,7 +2511,7 @@
       <c r="D13" t="s">
         <v>561</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>43099.770833333336</v>
       </c>
     </row>
@@ -2534,7 +2528,7 @@
       <c r="D14" t="s">
         <v>561</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>43098.777777777781</v>
       </c>
     </row>
@@ -2551,7 +2545,7 @@
       <c r="D15" t="s">
         <v>561</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>43098.777777777781</v>
       </c>
     </row>
@@ -2568,7 +2562,7 @@
       <c r="D16" t="s">
         <v>561</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>43098.583333333336</v>
       </c>
     </row>
@@ -2585,7 +2579,7 @@
       <c r="D17" t="s">
         <v>561</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>43097.163194444445</v>
       </c>
     </row>
@@ -2602,7 +2596,7 @@
       <c r="D18" t="s">
         <v>561</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>43098.1875</v>
       </c>
     </row>
@@ -2619,7 +2613,7 @@
       <c r="D19" t="s">
         <v>561</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>43095.142361111109</v>
       </c>
     </row>
@@ -2636,7 +2630,7 @@
       <c r="D20" t="s">
         <v>561</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
         <v>43096.083333333336</v>
       </c>
     </row>
@@ -2653,7 +2647,7 @@
       <c r="D21" t="s">
         <v>561</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21">
         <v>43096.083333333336</v>
       </c>
     </row>
@@ -2670,7 +2664,7 @@
       <c r="D22" t="s">
         <v>561</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
         <v>43096.868055555555</v>
       </c>
     </row>
@@ -2687,7 +2681,7 @@
       <c r="D23" t="s">
         <v>561</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23">
         <v>43094.5625</v>
       </c>
     </row>
@@ -2704,7 +2698,7 @@
       <c r="D24" t="s">
         <v>561</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24">
         <v>43094.5625</v>
       </c>
     </row>
@@ -2721,7 +2715,7 @@
       <c r="D25" t="s">
         <v>561</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25">
         <v>43093.006944444445</v>
       </c>
     </row>
@@ -2738,7 +2732,7 @@
       <c r="D26" t="s">
         <v>561</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26">
         <v>43094.041666666664</v>
       </c>
     </row>
@@ -2755,7 +2749,7 @@
       <c r="D27" t="s">
         <v>561</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27">
         <v>43094.041666666664</v>
       </c>
     </row>
@@ -2772,7 +2766,7 @@
       <c r="D28" t="s">
         <v>561</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28">
         <v>43090.965277777781</v>
       </c>
     </row>
@@ -2789,7 +2783,7 @@
       <c r="D29" t="s">
         <v>561</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29">
         <v>43090.965277777781</v>
       </c>
     </row>
@@ -2806,7 +2800,7 @@
       <c r="D30" t="s">
         <v>561</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30">
         <v>43092.375</v>
       </c>
     </row>
@@ -2823,7 +2817,7 @@
       <c r="D31" t="s">
         <v>561</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31">
         <v>43092.6875</v>
       </c>
     </row>
@@ -2840,7 +2834,7 @@
       <c r="D32" t="s">
         <v>561</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32">
         <v>43090.4375</v>
       </c>
     </row>
@@ -2857,7 +2851,7 @@
       <c r="D33" t="s">
         <v>561</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33">
         <v>43089.9375</v>
       </c>
     </row>
@@ -2874,7 +2868,7 @@
       <c r="D34" t="s">
         <v>561</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34">
         <v>43089.9375</v>
       </c>
     </row>
@@ -2891,7 +2885,7 @@
       <c r="D35" t="s">
         <v>561</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35">
         <v>43089.444444444445</v>
       </c>
     </row>
@@ -2908,7 +2902,7 @@
       <c r="D36" t="s">
         <v>561</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36">
         <v>43089.0625</v>
       </c>
     </row>
@@ -2925,7 +2919,7 @@
       <c r="D37" t="s">
         <v>561</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37">
         <v>43088.8125</v>
       </c>
     </row>
@@ -2942,7 +2936,7 @@
       <c r="D38" t="s">
         <v>561</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38">
         <v>43093.527777777781</v>
       </c>
     </row>
@@ -2959,7 +2953,7 @@
       <c r="D39" t="s">
         <v>561</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39">
         <v>43087.444444444445</v>
       </c>
     </row>
@@ -2976,7 +2970,7 @@
       <c r="D40" t="s">
         <v>561</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40">
         <v>43086.885416666664</v>
       </c>
     </row>
@@ -2993,7 +2987,7 @@
       <c r="D41" t="s">
         <v>561</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41">
         <v>43086.951388888891</v>
       </c>
     </row>
@@ -3010,7 +3004,7 @@
       <c r="D42" t="s">
         <v>561</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42">
         <v>43086.694444444445</v>
       </c>
     </row>
@@ -3027,7 +3021,7 @@
       <c r="D43" t="s">
         <v>561</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43">
         <v>43085.819444444445</v>
       </c>
     </row>
@@ -3044,7 +3038,7 @@
       <c r="D44" t="s">
         <v>561</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44">
         <v>43083.329861111109</v>
       </c>
     </row>
@@ -3061,7 +3055,7 @@
       <c r="D45" t="s">
         <v>561</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45">
         <v>43084.829861111109</v>
       </c>
     </row>
@@ -3078,7 +3072,7 @@
       <c r="D46" t="s">
         <v>561</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46">
         <v>43084.829861111109</v>
       </c>
     </row>
@@ -3095,7 +3089,7 @@
       <c r="D47" t="s">
         <v>561</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47">
         <v>43085.861111111109</v>
       </c>
     </row>
@@ -3112,7 +3106,7 @@
       <c r="D48" t="s">
         <v>561</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48">
         <v>43085.861111111109</v>
       </c>
     </row>
@@ -3129,7 +3123,7 @@
       <c r="D49" t="s">
         <v>561</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49">
         <v>43083.579861111109</v>
       </c>
     </row>
@@ -3146,7 +3140,7 @@
       <c r="D50" t="s">
         <v>561</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50">
         <v>43083.753472222219</v>
       </c>
     </row>
@@ -3160,7 +3154,7 @@
       <c r="D51" t="s">
         <v>561</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51">
         <v>43081.666666666664</v>
       </c>
     </row>
@@ -3177,7 +3171,7 @@
       <c r="D52" t="s">
         <v>561</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52">
         <v>43081.590277777781</v>
       </c>
     </row>
@@ -3194,7 +3188,7 @@
       <c r="D53" t="s">
         <v>561</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53">
         <v>43085.395833333336</v>
       </c>
     </row>
@@ -3211,7 +3205,7 @@
       <c r="D54" t="s">
         <v>561</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54">
         <v>43080.145833333336</v>
       </c>
     </row>
@@ -3228,7 +3222,7 @@
       <c r="D55" t="s">
         <v>561</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55">
         <v>43082.194444444445</v>
       </c>
     </row>
@@ -3245,7 +3239,7 @@
       <c r="D56" t="s">
         <v>561</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56">
         <v>43082.194444444445</v>
       </c>
     </row>
@@ -3262,7 +3256,7 @@
       <c r="D57" t="s">
         <v>561</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57">
         <v>43083.256944444445</v>
       </c>
     </row>
@@ -3279,7 +3273,7 @@
       <c r="D58" t="s">
         <v>561</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58">
         <v>43083.256944444445</v>
       </c>
     </row>
@@ -3296,7 +3290,7 @@
       <c r="D59" t="s">
         <v>561</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59">
         <v>43084.277777777781</v>
       </c>
     </row>
@@ -3313,7 +3307,7 @@
       <c r="D60" t="s">
         <v>561</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60">
         <v>43084.277777777781</v>
       </c>
     </row>
@@ -3330,7 +3324,7 @@
       <c r="D61" t="s">
         <v>561</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61">
         <v>43079.586805555555</v>
       </c>
     </row>
@@ -3347,7 +3341,7 @@
       <c r="D62" t="s">
         <v>561</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62">
         <v>43079.586805555555</v>
       </c>
     </row>
@@ -3364,7 +3358,7 @@
       <c r="D63" t="s">
         <v>561</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63">
         <v>43081.166666666664</v>
       </c>
     </row>
@@ -3381,7 +3375,7 @@
       <c r="D64" t="s">
         <v>561</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64">
         <v>43076.010416666664</v>
       </c>
     </row>
@@ -3398,7 +3392,7 @@
       <c r="D65" t="s">
         <v>561</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65">
         <v>43076.888888888891</v>
       </c>
     </row>
@@ -3415,7 +3409,7 @@
       <c r="D66" t="s">
         <v>561</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66">
         <v>43081.708333333336</v>
       </c>
     </row>
@@ -3432,7 +3426,7 @@
       <c r="D67" t="s">
         <v>561</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67">
         <v>43078.527777777781</v>
       </c>
     </row>
@@ -3449,7 +3443,7 @@
       <c r="D68" t="s">
         <v>561</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68">
         <v>43077.472222222219</v>
       </c>
     </row>
@@ -3466,7 +3460,7 @@
       <c r="D69" t="s">
         <v>561</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69">
         <v>43077.472222222219</v>
       </c>
     </row>
@@ -3483,7 +3477,7 @@
       <c r="D70" t="s">
         <v>561</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70">
         <v>43076.444444444445</v>
       </c>
     </row>
@@ -3500,7 +3494,7 @@
       <c r="D71" t="s">
         <v>561</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71">
         <v>43076.444444444445</v>
       </c>
     </row>
@@ -3517,7 +3511,7 @@
       <c r="D72" t="s">
         <v>561</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72">
         <v>43074.979166666664</v>
       </c>
     </row>
@@ -3534,7 +3528,7 @@
       <c r="D73" t="s">
         <v>561</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73">
         <v>43074.416666666664</v>
       </c>
     </row>
@@ -3551,7 +3545,7 @@
       <c r="D74" t="s">
         <v>561</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74">
         <v>43073.875</v>
       </c>
     </row>
@@ -3568,7 +3562,7 @@
       <c r="D75" t="s">
         <v>561</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75">
         <v>43073.392361111109</v>
       </c>
     </row>
@@ -3585,7 +3579,7 @@
       <c r="D76" t="s">
         <v>561</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E76">
         <v>43072.354166666664</v>
       </c>
     </row>
@@ -3602,7 +3596,7 @@
       <c r="D77" t="s">
         <v>561</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E77">
         <v>43072.354166666664</v>
       </c>
     </row>
@@ -3619,7 +3613,7 @@
       <c r="D78" t="s">
         <v>561</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78">
         <v>43071.197916666664</v>
       </c>
     </row>
@@ -3636,7 +3630,7 @@
       <c r="D79" t="s">
         <v>561</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E79">
         <v>43071.347222222219</v>
       </c>
     </row>
@@ -3653,7 +3647,7 @@
       <c r="D80" t="s">
         <v>561</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E80">
         <v>43071.347222222219</v>
       </c>
     </row>
@@ -3670,7 +3664,7 @@
       <c r="D81" t="s">
         <v>561</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E81">
         <v>43070.270833333336</v>
       </c>
     </row>
@@ -3687,7 +3681,7 @@
       <c r="D82" t="s">
         <v>561</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E82">
         <v>43070.861111111109</v>
       </c>
     </row>
@@ -3704,7 +3698,7 @@
       <c r="D83" t="s">
         <v>561</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E83">
         <v>43070.861111111109</v>
       </c>
     </row>
@@ -3721,7 +3715,7 @@
       <c r="D84" t="s">
         <v>561</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E84">
         <v>43065.583333333336</v>
       </c>
     </row>
@@ -3738,7 +3732,7 @@
       <c r="D85" t="s">
         <v>561</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E85">
         <v>43068.6875</v>
       </c>
     </row>
@@ -3755,7 +3749,7 @@
       <c r="D86" t="s">
         <v>561</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E86">
         <v>43068.6875</v>
       </c>
     </row>
@@ -3772,7 +3766,7 @@
       <c r="D87" t="s">
         <v>561</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E87">
         <v>43067.645833333336</v>
       </c>
     </row>
@@ -3789,7 +3783,7 @@
       <c r="D88" t="s">
         <v>561</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E88">
         <v>43067.645833333336</v>
       </c>
     </row>
@@ -3806,7 +3800,7 @@
       <c r="D89" t="s">
         <v>561</v>
       </c>
-      <c r="E89" s="1">
+      <c r="E89">
         <v>43068.201388888891</v>
       </c>
     </row>
@@ -3823,7 +3817,7 @@
       <c r="D90" t="s">
         <v>561</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E90">
         <v>43068.083333333336</v>
       </c>
     </row>
@@ -3840,7 +3834,7 @@
       <c r="D91" t="s">
         <v>561</v>
       </c>
-      <c r="E91" s="1">
+      <c r="E91">
         <v>43069.652777777781</v>
       </c>
     </row>
@@ -3857,7 +3851,7 @@
       <c r="D92" t="s">
         <v>561</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E92">
         <v>43067.159722222219</v>
       </c>
     </row>
@@ -3874,7 +3868,7 @@
       <c r="D93" t="s">
         <v>561</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E93">
         <v>43067.159722222219</v>
       </c>
     </row>
@@ -3891,7 +3885,7 @@
       <c r="D94" t="s">
         <v>561</v>
       </c>
-      <c r="E94" s="1">
+      <c r="E94">
         <v>43068.131944444445</v>
       </c>
     </row>
@@ -3908,7 +3902,7 @@
       <c r="D95" t="s">
         <v>561</v>
       </c>
-      <c r="E95" s="1">
+      <c r="E95">
         <v>43064.034722222219</v>
       </c>
     </row>
@@ -3925,7 +3919,7 @@
       <c r="D96" t="s">
         <v>561</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E96">
         <v>43065.041666666664</v>
       </c>
     </row>
@@ -3942,7 +3936,7 @@
       <c r="D97" t="s">
         <v>561</v>
       </c>
-      <c r="E97" s="1">
+      <c r="E97">
         <v>43066.604166666664</v>
       </c>
     </row>
@@ -3959,7 +3953,7 @@
       <c r="D98" t="s">
         <v>561</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E98">
         <v>43061.461805555555</v>
       </c>
     </row>
@@ -3976,7 +3970,7 @@
       <c r="D99" t="s">
         <v>561</v>
       </c>
-      <c r="E99" s="1">
+      <c r="E99">
         <v>43061.461805555555</v>
       </c>
     </row>
@@ -3993,7 +3987,7 @@
       <c r="D100" t="s">
         <v>561</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E100">
         <v>43061.461805555555</v>
       </c>
     </row>
@@ -4010,7 +4004,7 @@
       <c r="D101" t="s">
         <v>561</v>
       </c>
-      <c r="E101" s="1">
+      <c r="E101">
         <v>43062.541666666664</v>
       </c>
     </row>
@@ -4027,7 +4021,7 @@
       <c r="D102" t="s">
         <v>561</v>
       </c>
-      <c r="E102" s="1">
+      <c r="E102">
         <v>43062.986111111109</v>
       </c>
     </row>
@@ -4044,7 +4038,7 @@
       <c r="D103" t="s">
         <v>561</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E103">
         <v>43062.986111111109</v>
       </c>
     </row>
@@ -4061,7 +4055,7 @@
       <c r="D104" t="s">
         <v>561</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E104">
         <v>43064.152777777781</v>
       </c>
     </row>
@@ -4078,7 +4072,7 @@
       <c r="D105" t="s">
         <v>561</v>
       </c>
-      <c r="E105" s="1">
+      <c r="E105">
         <v>43060.909722222219</v>
       </c>
     </row>
@@ -4095,7 +4089,7 @@
       <c r="D106" t="s">
         <v>561</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E106">
         <v>43062.479166666664</v>
       </c>
     </row>
@@ -4112,7 +4106,7 @@
       <c r="D107" t="s">
         <v>561</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E107">
         <v>43062.479166666664</v>
       </c>
     </row>
@@ -4129,7 +4123,7 @@
       <c r="D108" t="s">
         <v>561</v>
       </c>
-      <c r="E108" s="1">
+      <c r="E108">
         <v>43060.423611111109</v>
       </c>
     </row>
@@ -4146,7 +4140,7 @@
       <c r="D109" t="s">
         <v>561</v>
       </c>
-      <c r="E109" s="1">
+      <c r="E109">
         <v>43059.972222222219</v>
       </c>
     </row>
@@ -4163,7 +4157,7 @@
       <c r="D110" t="s">
         <v>561</v>
       </c>
-      <c r="E110" s="1">
+      <c r="E110">
         <v>43059.413194444445</v>
       </c>
     </row>
@@ -4180,7 +4174,7 @@
       <c r="D111" t="s">
         <v>561</v>
       </c>
-      <c r="E111" s="1">
+      <c r="E111">
         <v>43058.416666666664</v>
       </c>
     </row>
@@ -4197,7 +4191,7 @@
       <c r="D112" t="s">
         <v>561</v>
       </c>
-      <c r="E112" s="1">
+      <c r="E112">
         <v>43058.399305555555</v>
       </c>
     </row>
@@ -4214,7 +4208,7 @@
       <c r="D113" t="s">
         <v>561</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E113">
         <v>43055.3125</v>
       </c>
     </row>
@@ -4231,7 +4225,7 @@
       <c r="D114" t="s">
         <v>561</v>
       </c>
-      <c r="E114" s="1">
+      <c r="E114">
         <v>43055.84375</v>
       </c>
     </row>
@@ -4248,7 +4242,7 @@
       <c r="D115" t="s">
         <v>561</v>
       </c>
-      <c r="E115" s="1">
+      <c r="E115">
         <v>43056</v>
       </c>
     </row>
@@ -4265,7 +4259,7 @@
       <c r="D116" t="s">
         <v>561</v>
       </c>
-      <c r="E116" s="1">
+      <c r="E116">
         <v>43054.791666666664</v>
       </c>
     </row>
@@ -4282,7 +4276,7 @@
       <c r="D117" t="s">
         <v>561</v>
       </c>
-      <c r="E117" s="1">
+      <c r="E117">
         <v>43054.791666666664</v>
       </c>
     </row>
@@ -4299,7 +4293,7 @@
       <c r="D118" t="s">
         <v>561</v>
       </c>
-      <c r="E118" s="1">
+      <c r="E118">
         <v>43056.53125</v>
       </c>
     </row>
@@ -4316,7 +4310,7 @@
       <c r="D119" t="s">
         <v>561</v>
       </c>
-      <c r="E119" s="1">
+      <c r="E119">
         <v>43057.930555555555</v>
       </c>
     </row>
@@ -4333,7 +4327,7 @@
       <c r="D120" t="s">
         <v>561</v>
       </c>
-      <c r="E120" s="1">
+      <c r="E120">
         <v>43056.645833333336</v>
       </c>
     </row>
@@ -4350,7 +4344,7 @@
       <c r="D121" t="s">
         <v>561</v>
       </c>
-      <c r="E121" s="1">
+      <c r="E121">
         <v>43054.256944444445</v>
       </c>
     </row>
@@ -4367,7 +4361,7 @@
       <c r="D122" t="s">
         <v>561</v>
       </c>
-      <c r="E122" s="1">
+      <c r="E122">
         <v>43049.576388888891</v>
       </c>
     </row>
@@ -4384,7 +4378,7 @@
       <c r="D123" t="s">
         <v>561</v>
       </c>
-      <c r="E123" s="1">
+      <c r="E123">
         <v>43053.75</v>
       </c>
     </row>
@@ -4401,7 +4395,7 @@
       <c r="D124" t="s">
         <v>561</v>
       </c>
-      <c r="E124" s="1">
+      <c r="E124">
         <v>43052.708333333336</v>
       </c>
     </row>
@@ -4418,7 +4412,7 @@
       <c r="D125" t="s">
         <v>561</v>
       </c>
-      <c r="E125" s="1">
+      <c r="E125">
         <v>43046.986111111109</v>
       </c>
     </row>
@@ -4435,7 +4429,7 @@
       <c r="D126" t="s">
         <v>561</v>
       </c>
-      <c r="E126" s="1">
+      <c r="E126">
         <v>43047.461805555555</v>
       </c>
     </row>
@@ -4452,7 +4446,7 @@
       <c r="D127" t="s">
         <v>561</v>
       </c>
-      <c r="E127" s="1">
+      <c r="E127">
         <v>43051.645833333336</v>
       </c>
     </row>
@@ -4469,7 +4463,7 @@
       <c r="D128" t="s">
         <v>561</v>
       </c>
-      <c r="E128" s="1">
+      <c r="E128">
         <v>43048.579861111109</v>
       </c>
     </row>
@@ -4486,7 +4480,7 @@
       <c r="D129" t="s">
         <v>561</v>
       </c>
-      <c r="E129" s="1">
+      <c r="E129">
         <v>43045.9375</v>
       </c>
     </row>
@@ -4503,7 +4497,7 @@
       <c r="D130" t="s">
         <v>561</v>
       </c>
-      <c r="E130" s="1">
+      <c r="E130">
         <v>43045.9375</v>
       </c>
     </row>
@@ -4520,7 +4514,7 @@
       <c r="D131" t="s">
         <v>561</v>
       </c>
-      <c r="E131" s="1">
+      <c r="E131">
         <v>43050.597222222219</v>
       </c>
     </row>
@@ -4537,7 +4531,7 @@
       <c r="D132" t="s">
         <v>561</v>
       </c>
-      <c r="E132" s="1">
+      <c r="E132">
         <v>43046.444444444445</v>
       </c>
     </row>
@@ -4554,7 +4548,7 @@
       <c r="D133" t="s">
         <v>561</v>
       </c>
-      <c r="E133" s="1">
+      <c r="E133">
         <v>43044.381944444445</v>
       </c>
     </row>
@@ -4571,7 +4565,7 @@
       <c r="D134" t="s">
         <v>561</v>
       </c>
-      <c r="E134" s="1">
+      <c r="E134">
         <v>43044.381944444445</v>
       </c>
     </row>
@@ -4588,7 +4582,7 @@
       <c r="D135" t="s">
         <v>561</v>
       </c>
-      <c r="E135" s="1">
+      <c r="E135">
         <v>43044.90625</v>
       </c>
     </row>
@@ -4605,7 +4599,7 @@
       <c r="D136" t="s">
         <v>561</v>
       </c>
-      <c r="E136" s="1">
+      <c r="E136">
         <v>43044.90625</v>
       </c>
     </row>
@@ -4622,7 +4616,7 @@
       <c r="D137" t="s">
         <v>561</v>
       </c>
-      <c r="E137" s="1">
+      <c r="E137">
         <v>43040.954861111109</v>
       </c>
     </row>
@@ -4639,7 +4633,7 @@
       <c r="D138" t="s">
         <v>561</v>
       </c>
-      <c r="E138" s="1">
+      <c r="E138">
         <v>43040.631944444445</v>
       </c>
     </row>
@@ -4656,7 +4650,7 @@
       <c r="D139" t="s">
         <v>561</v>
       </c>
-      <c r="E139" s="1">
+      <c r="E139">
         <v>43040.791666666664</v>
       </c>
     </row>
@@ -4673,7 +4667,7 @@
       <c r="D140" t="s">
         <v>561</v>
       </c>
-      <c r="E140" s="1">
+      <c r="E140">
         <v>43040.791666666664</v>
       </c>
     </row>
@@ -4690,7 +4684,7 @@
       <c r="D141" t="s">
         <v>561</v>
       </c>
-      <c r="E141" s="1">
+      <c r="E141">
         <v>43043.375</v>
       </c>
     </row>
@@ -4707,7 +4701,7 @@
       <c r="D142" t="s">
         <v>561</v>
       </c>
-      <c r="E142" s="1">
+      <c r="E142">
         <v>43043.375</v>
       </c>
     </row>
@@ -4724,7 +4718,7 @@
       <c r="D143" t="s">
         <v>561</v>
       </c>
-      <c r="E143" s="1">
+      <c r="E143">
         <v>43041.319444444445</v>
       </c>
     </row>
@@ -4741,7 +4735,7 @@
       <c r="D144" t="s">
         <v>561</v>
       </c>
-      <c r="E144" s="1">
+      <c r="E144">
         <v>43040.284722222219</v>
       </c>
     </row>
@@ -4758,7 +4752,7 @@
       <c r="D145" t="s">
         <v>561</v>
       </c>
-      <c r="E145" s="1">
+      <c r="E145">
         <v>43036.597222222219</v>
       </c>
     </row>
@@ -4775,7 +4769,7 @@
       <c r="D146" t="s">
         <v>561</v>
       </c>
-      <c r="E146" s="1">
+      <c r="E146">
         <v>43036.597222222219</v>
       </c>
     </row>
@@ -4792,7 +4786,7 @@
       <c r="D147" t="s">
         <v>561</v>
       </c>
-      <c r="E147" s="1">
+      <c r="E147">
         <v>43035.253472222219</v>
       </c>
     </row>
@@ -4809,7 +4803,7 @@
       <c r="D148" t="s">
         <v>561</v>
       </c>
-      <c r="E148" s="1">
+      <c r="E148">
         <v>43034.055555555555</v>
       </c>
     </row>
@@ -4826,7 +4820,7 @@
       <c r="D149" t="s">
         <v>561</v>
       </c>
-      <c r="E149" s="1">
+      <c r="E149">
         <v>43036.125</v>
       </c>
     </row>
@@ -4843,7 +4837,7 @@
       <c r="D150" t="s">
         <v>561</v>
       </c>
-      <c r="E150" s="1">
+      <c r="E150">
         <v>43039.270833333336</v>
       </c>
     </row>
@@ -4860,7 +4854,7 @@
       <c r="D151" t="s">
         <v>561</v>
       </c>
-      <c r="E151" s="1">
+      <c r="E151">
         <v>43039.270833333336</v>
       </c>
     </row>
@@ -4877,7 +4871,7 @@
       <c r="D152" t="s">
         <v>561</v>
       </c>
-      <c r="E152" s="1">
+      <c r="E152">
         <v>43037.652777777781</v>
       </c>
     </row>
@@ -4894,7 +4888,7 @@
       <c r="D153" t="s">
         <v>561</v>
       </c>
-      <c r="E153" s="1">
+      <c r="E153">
         <v>43037.652777777781</v>
       </c>
     </row>
@@ -4911,7 +4905,7 @@
       <c r="D154" t="s">
         <v>561</v>
       </c>
-      <c r="E154" s="1">
+      <c r="E154">
         <v>43035.541666666664</v>
       </c>
     </row>
@@ -4928,7 +4922,7 @@
       <c r="D155" t="s">
         <v>561</v>
       </c>
-      <c r="E155" s="1">
+      <c r="E155">
         <v>43035.083333333336</v>
       </c>
     </row>
@@ -4945,7 +4939,7 @@
       <c r="D156" t="s">
         <v>561</v>
       </c>
-      <c r="E156" s="1">
+      <c r="E156">
         <v>43030.729166666664</v>
       </c>
     </row>
@@ -4962,7 +4956,7 @@
       <c r="D157" t="s">
         <v>561</v>
       </c>
-      <c r="E157" s="1">
+      <c r="E157">
         <v>43031.447916666664</v>
       </c>
     </row>
@@ -4979,7 +4973,7 @@
       <c r="D158" t="s">
         <v>561</v>
       </c>
-      <c r="E158" s="1">
+      <c r="E158">
         <v>43031.447916666664</v>
       </c>
     </row>
@@ -4996,7 +4990,7 @@
       <c r="D159" t="s">
         <v>561</v>
       </c>
-      <c r="E159" s="1">
+      <c r="E159">
         <v>43033.006944444445</v>
       </c>
     </row>
@@ -5013,7 +5007,7 @@
       <c r="D160" t="s">
         <v>561</v>
       </c>
-      <c r="E160" s="1">
+      <c r="E160">
         <v>43030.9375</v>
       </c>
     </row>
@@ -5030,7 +5024,7 @@
       <c r="D161" t="s">
         <v>561</v>
       </c>
-      <c r="E161" s="1">
+      <c r="E161">
         <v>43030.9375</v>
       </c>
     </row>
@@ -5047,7 +5041,7 @@
       <c r="D162" t="s">
         <v>561</v>
       </c>
-      <c r="E162" s="1">
+      <c r="E162">
         <v>43029.416666666664</v>
       </c>
     </row>
@@ -5064,7 +5058,7 @@
       <c r="D163" t="s">
         <v>561</v>
       </c>
-      <c r="E163" s="1">
+      <c r="E163">
         <v>43027.413194444445</v>
       </c>
     </row>
@@ -5081,7 +5075,7 @@
       <c r="D164" t="s">
         <v>561</v>
       </c>
-      <c r="E164" s="1">
+      <c r="E164">
         <v>43026.364583333336</v>
       </c>
     </row>
@@ -5098,7 +5092,7 @@
       <c r="D165" t="s">
         <v>561</v>
       </c>
-      <c r="E165" s="1">
+      <c r="E165">
         <v>43025.340277777781</v>
       </c>
     </row>
@@ -5115,7 +5109,7 @@
       <c r="D166" t="s">
         <v>561</v>
       </c>
-      <c r="E166" s="1">
+      <c r="E166">
         <v>43028.854166666664</v>
       </c>
     </row>
@@ -5132,7 +5126,7 @@
       <c r="D167" t="s">
         <v>561</v>
       </c>
-      <c r="E167" s="1">
+      <c r="E167">
         <v>43024.270833333336</v>
       </c>
     </row>
@@ -5149,7 +5143,7 @@
       <c r="D168" t="s">
         <v>561</v>
       </c>
-      <c r="E168" s="1">
+      <c r="E168">
         <v>43024.270833333336</v>
       </c>
     </row>
@@ -5166,7 +5160,7 @@
       <c r="D169" t="s">
         <v>561</v>
       </c>
-      <c r="E169" s="1">
+      <c r="E169">
         <v>43024.868055555555</v>
       </c>
     </row>
@@ -5183,7 +5177,7 @@
       <c r="D170" t="s">
         <v>561</v>
       </c>
-      <c r="E170" s="1">
+      <c r="E170">
         <v>43024.868055555555</v>
       </c>
     </row>
@@ -5200,7 +5194,7 @@
       <c r="D171" t="s">
         <v>561</v>
       </c>
-      <c r="E171" s="1">
+      <c r="E171">
         <v>43022.125</v>
       </c>
     </row>
@@ -5217,7 +5211,7 @@
       <c r="D172" t="s">
         <v>561</v>
       </c>
-      <c r="E172" s="1">
+      <c r="E172">
         <v>43022.666666666664</v>
       </c>
     </row>
@@ -5234,7 +5228,7 @@
       <c r="D173" t="s">
         <v>561</v>
       </c>
-      <c r="E173" s="1">
+      <c r="E173">
         <v>43019.572916666664</v>
       </c>
     </row>
@@ -5251,7 +5245,7 @@
       <c r="D174" t="s">
         <v>561</v>
       </c>
-      <c r="E174" s="1">
+      <c r="E174">
         <v>43019.572916666664</v>
       </c>
     </row>
@@ -5268,7 +5262,7 @@
       <c r="D175" t="s">
         <v>561</v>
       </c>
-      <c r="E175" s="1">
+      <c r="E175">
         <v>43021.173611111109</v>
       </c>
     </row>
@@ -5285,7 +5279,7 @@
       <c r="D176" t="s">
         <v>561</v>
       </c>
-      <c r="E176" s="1">
+      <c r="E176">
         <v>43025.923611111109</v>
       </c>
     </row>
@@ -5302,7 +5296,7 @@
       <c r="D177" t="s">
         <v>561</v>
       </c>
-      <c r="E177" s="1">
+      <c r="E177">
         <v>43017.993055555555</v>
       </c>
     </row>
@@ -5319,7 +5313,7 @@
       <c r="D178" t="s">
         <v>561</v>
       </c>
-      <c r="E178" s="1">
+      <c r="E178">
         <v>43016.947916666664</v>
       </c>
     </row>
@@ -5336,7 +5330,7 @@
       <c r="D179" t="s">
         <v>561</v>
       </c>
-      <c r="E179" s="1">
+      <c r="E179">
         <v>43015.416666666664</v>
       </c>
     </row>
@@ -5353,7 +5347,7 @@
       <c r="D180" t="s">
         <v>561</v>
       </c>
-      <c r="E180" s="1">
+      <c r="E180">
         <v>43017.5</v>
       </c>
     </row>
@@ -5370,7 +5364,7 @@
       <c r="D181" t="s">
         <v>561</v>
       </c>
-      <c r="E181" s="1">
+      <c r="E181">
         <v>43018.489583333336</v>
       </c>
     </row>
@@ -5387,7 +5381,7 @@
       <c r="D182" t="s">
         <v>561</v>
       </c>
-      <c r="E182" s="1">
+      <c r="E182">
         <v>43015.923611111109</v>
       </c>
     </row>
@@ -5404,7 +5398,7 @@
       <c r="D183" t="s">
         <v>561</v>
       </c>
-      <c r="E183" s="1">
+      <c r="E183">
         <v>43013.875</v>
       </c>
     </row>
@@ -5421,7 +5415,7 @@
       <c r="D184" t="s">
         <v>561</v>
       </c>
-      <c r="E184" s="1">
+      <c r="E184">
         <v>43014.895833333336</v>
       </c>
     </row>
@@ -5438,7 +5432,7 @@
       <c r="D185" t="s">
         <v>561</v>
       </c>
-      <c r="E185" s="1">
+      <c r="E185">
         <v>43016.430555555555</v>
       </c>
     </row>
@@ -5455,7 +5449,7 @@
       <c r="D186" t="s">
         <v>561</v>
       </c>
-      <c r="E186" s="1">
+      <c r="E186">
         <v>43014.895833333336</v>
       </c>
     </row>
@@ -5472,7 +5466,7 @@
       <c r="D187" t="s">
         <v>561</v>
       </c>
-      <c r="E187" s="1">
+      <c r="E187">
         <v>43009.909722222219</v>
       </c>
     </row>
@@ -5489,7 +5483,7 @@
       <c r="D188" t="s">
         <v>561</v>
       </c>
-      <c r="E188" s="1">
+      <c r="E188">
         <v>43005.8125</v>
       </c>
     </row>
@@ -5506,7 +5500,7 @@
       <c r="D189" t="s">
         <v>561</v>
       </c>
-      <c r="E189" s="1">
+      <c r="E189">
         <v>43006.590277777781</v>
       </c>
     </row>
@@ -5523,7 +5517,7 @@
       <c r="D190" t="s">
         <v>561</v>
       </c>
-      <c r="E190" s="1">
+      <c r="E190">
         <v>43008.6875</v>
       </c>
     </row>
@@ -5540,7 +5534,7 @@
       <c r="D191" t="s">
         <v>561</v>
       </c>
-      <c r="E191" s="1">
+      <c r="E191">
         <v>43003.479166666664</v>
       </c>
     </row>
@@ -5557,7 +5551,7 @@
       <c r="D192" t="s">
         <v>561</v>
       </c>
-      <c r="E192" s="1">
+      <c r="E192">
         <v>42999</v>
       </c>
     </row>
@@ -5574,7 +5568,7 @@
       <c r="D193" t="s">
         <v>561</v>
       </c>
-      <c r="E193" s="1">
+      <c r="E193">
         <v>42998.673611111109</v>
       </c>
     </row>
@@ -5591,7 +5585,7 @@
       <c r="D194" t="s">
         <v>561</v>
       </c>
-      <c r="E194" s="1">
+      <c r="E194">
         <v>42996.604166666664</v>
       </c>
     </row>
@@ -5608,7 +5602,7 @@
       <c r="D195" t="s">
         <v>561</v>
       </c>
-      <c r="E195" s="1">
+      <c r="E195">
         <v>42996.402777777781</v>
       </c>
     </row>
@@ -5625,7 +5619,7 @@
       <c r="D196" t="s">
         <v>561</v>
       </c>
-      <c r="E196" s="1">
+      <c r="E196">
         <v>42997.385416666664</v>
       </c>
     </row>
@@ -5642,7 +5636,7 @@
       <c r="D197" t="s">
         <v>561</v>
       </c>
-      <c r="E197" s="1">
+      <c r="E197">
         <v>42993.298611111109</v>
       </c>
     </row>
@@ -5659,7 +5653,7 @@
       <c r="D198" t="s">
         <v>561</v>
       </c>
-      <c r="E198" s="1">
+      <c r="E198">
         <v>42992.194444444445</v>
       </c>
     </row>
@@ -5676,7 +5670,7 @@
       <c r="D199" t="s">
         <v>561</v>
       </c>
-      <c r="E199" s="1">
+      <c r="E199">
         <v>42991.076388888891</v>
       </c>
     </row>
@@ -5693,7 +5687,7 @@
       <c r="D200" t="s">
         <v>561</v>
       </c>
-      <c r="E200" s="1">
+      <c r="E200">
         <v>42987.354166666664</v>
       </c>
     </row>
@@ -5710,7 +5704,7 @@
       <c r="D201" t="s">
         <v>561</v>
       </c>
-      <c r="E201" s="1">
+      <c r="E201">
         <v>42986.263888888891</v>
       </c>
     </row>
@@ -5727,7 +5721,7 @@
       <c r="D202" t="s">
         <v>561</v>
       </c>
-      <c r="E202" s="1">
+      <c r="E202">
         <v>42984.451388888891</v>
       </c>
     </row>
@@ -5744,7 +5738,7 @@
       <c r="D203" t="s">
         <v>561</v>
       </c>
-      <c r="E203" s="1">
+      <c r="E203">
         <v>42982.1875</v>
       </c>
     </row>
@@ -5761,7 +5755,7 @@
       <c r="D204" t="s">
         <v>561</v>
       </c>
-      <c r="E204" s="1">
+      <c r="E204">
         <v>42981.78125</v>
       </c>
     </row>
@@ -5778,7 +5772,7 @@
       <c r="D205" t="s">
         <v>561</v>
       </c>
-      <c r="E205" s="1">
+      <c r="E205">
         <v>42977.715277777781</v>
       </c>
     </row>
@@ -5795,7 +5789,7 @@
       <c r="D206" t="s">
         <v>561</v>
       </c>
-      <c r="E206" s="1">
+      <c r="E206">
         <v>42975.055555555555</v>
       </c>
     </row>
@@ -5812,7 +5806,7 @@
       <c r="D207" t="s">
         <v>561</v>
       </c>
-      <c r="E207" s="1">
+      <c r="E207">
         <v>42975.055555555555</v>
       </c>
     </row>
@@ -5829,7 +5823,7 @@
       <c r="D208" t="s">
         <v>561</v>
       </c>
-      <c r="E208" s="1">
+      <c r="E208">
         <v>42975.055555555555</v>
       </c>
     </row>
@@ -5846,7 +5840,7 @@
       <c r="D209" t="s">
         <v>561</v>
       </c>
-      <c r="E209" s="1">
+      <c r="E209">
         <v>42970.743055555555</v>
       </c>
     </row>
@@ -5863,7 +5857,7 @@
       <c r="D210" t="s">
         <v>561</v>
       </c>
-      <c r="E210" s="1">
+      <c r="E210">
         <v>42970.4375</v>
       </c>
     </row>
@@ -5880,7 +5874,7 @@
       <c r="D211" t="s">
         <v>561</v>
       </c>
-      <c r="E211" s="1">
+      <c r="E211">
         <v>42969.90625</v>
       </c>
     </row>
@@ -5897,7 +5891,7 @@
       <c r="D212" t="s">
         <v>561</v>
       </c>
-      <c r="E212" s="1">
+      <c r="E212">
         <v>42969.90625</v>
       </c>
     </row>
@@ -5914,7 +5908,7 @@
       <c r="D213" t="s">
         <v>561</v>
       </c>
-      <c r="E213" s="1">
+      <c r="E213">
         <v>42963.625</v>
       </c>
     </row>
@@ -5931,7 +5925,7 @@
       <c r="D214" t="s">
         <v>561</v>
       </c>
-      <c r="E214" s="1">
+      <c r="E214">
         <v>42963.520833333336</v>
       </c>
     </row>
@@ -5948,7 +5942,7 @@
       <c r="D215" t="s">
         <v>561</v>
       </c>
-      <c r="E215" s="1">
+      <c r="E215">
         <v>42961.743055555555</v>
       </c>
     </row>
@@ -5965,7 +5959,7 @@
       <c r="D216" t="s">
         <v>561</v>
       </c>
-      <c r="E216" s="1">
+      <c r="E216">
         <v>42965.118055555555</v>
       </c>
     </row>
@@ -5982,7 +5976,7 @@
       <c r="D217" t="s">
         <v>561</v>
       </c>
-      <c r="E217" s="1">
+      <c r="E217">
         <v>42959.506944444445</v>
       </c>
     </row>
@@ -5999,7 +5993,7 @@
       <c r="D218" t="s">
         <v>561</v>
       </c>
-      <c r="E218" s="1">
+      <c r="E218">
         <v>42952.416666666664</v>
       </c>
     </row>
@@ -6016,7 +6010,7 @@
       <c r="D219" t="s">
         <v>561</v>
       </c>
-      <c r="E219" s="1">
+      <c r="E219">
         <v>42952.416666666664</v>
       </c>
     </row>
@@ -6033,7 +6027,7 @@
       <c r="D220" t="s">
         <v>561</v>
       </c>
-      <c r="E220" s="1">
+      <c r="E220">
         <v>42950.770833333336</v>
       </c>
     </row>
@@ -6050,7 +6044,7 @@
       <c r="D221" t="s">
         <v>561</v>
       </c>
-      <c r="E221" s="1">
+      <c r="E221">
         <v>42948.548611111109</v>
       </c>
     </row>
@@ -6067,7 +6061,7 @@
       <c r="D222" t="s">
         <v>561</v>
       </c>
-      <c r="E222" s="1">
+      <c r="E222">
         <v>42946.055555555555</v>
       </c>
     </row>
@@ -6084,7 +6078,7 @@
       <c r="D223" t="s">
         <v>561</v>
       </c>
-      <c r="E223" s="1">
+      <c r="E223">
         <v>42946.055555555555</v>
       </c>
     </row>
@@ -6101,7 +6095,7 @@
       <c r="D224" t="s">
         <v>561</v>
       </c>
-      <c r="E224" s="1">
+      <c r="E224">
         <v>42944.541666666664</v>
       </c>
     </row>
@@ -6118,7 +6112,7 @@
       <c r="D225" t="s">
         <v>561</v>
       </c>
-      <c r="E225" s="1">
+      <c r="E225">
         <v>42943.479166666664</v>
       </c>
     </row>
@@ -6135,7 +6129,7 @@
       <c r="D226" t="s">
         <v>561</v>
       </c>
-      <c r="E226" s="1">
+      <c r="E226">
         <v>42936.25</v>
       </c>
     </row>
@@ -6152,7 +6146,7 @@
       <c r="D227" t="s">
         <v>561</v>
       </c>
-      <c r="E227" s="1">
+      <c r="E227">
         <v>42924.947916666664</v>
       </c>
     </row>
@@ -6169,7 +6163,7 @@
       <c r="D228" t="s">
         <v>561</v>
       </c>
-      <c r="E228" s="1">
+      <c r="E228">
         <v>42925.493055555555</v>
       </c>
     </row>
@@ -6186,7 +6180,7 @@
       <c r="D229" t="s">
         <v>561</v>
       </c>
-      <c r="E229" s="1">
+      <c r="E229">
         <v>42915.381944444445</v>
       </c>
     </row>
@@ -6203,7 +6197,7 @@
       <c r="D230" t="s">
         <v>561</v>
       </c>
-      <c r="E230" s="1">
+      <c r="E230">
         <v>42913.975694444445</v>
       </c>
     </row>
@@ -6220,7 +6214,7 @@
       <c r="D231" t="s">
         <v>561</v>
       </c>
-      <c r="E231" s="1">
+      <c r="E231">
         <v>42913.975694444445</v>
       </c>
     </row>
@@ -6237,7 +6231,7 @@
       <c r="D232" t="s">
         <v>561</v>
       </c>
-      <c r="E232" s="1">
+      <c r="E232">
         <v>42911.881944444445</v>
       </c>
     </row>
@@ -6254,7 +6248,7 @@
       <c r="D233" t="s">
         <v>561</v>
       </c>
-      <c r="E233" s="1">
+      <c r="E233">
         <v>42909.413194444445</v>
       </c>
     </row>
@@ -6271,7 +6265,7 @@
       <c r="D234" t="s">
         <v>561</v>
       </c>
-      <c r="E234" s="1">
+      <c r="E234">
         <v>42906.75</v>
       </c>
     </row>
@@ -6288,7 +6282,7 @@
       <c r="D235" t="s">
         <v>561</v>
       </c>
-      <c r="E235" s="1">
+      <c r="E235">
         <v>42902.041666666664</v>
       </c>
     </row>
@@ -6305,7 +6299,7 @@
       <c r="D236" t="s">
         <v>561</v>
       </c>
-      <c r="E236" s="1">
+      <c r="E236">
         <v>42900.951388888891</v>
       </c>
     </row>
@@ -6322,7 +6316,7 @@
       <c r="D237" t="s">
         <v>561</v>
       </c>
-      <c r="E237" s="1">
+      <c r="E237">
         <v>42896.913194444445</v>
       </c>
     </row>
@@ -6339,7 +6333,7 @@
       <c r="D238" t="s">
         <v>561</v>
       </c>
-      <c r="E238" s="1">
+      <c r="E238">
         <v>42893.8125</v>
       </c>
     </row>
@@ -6356,7 +6350,7 @@
       <c r="D239" t="s">
         <v>561</v>
       </c>
-      <c r="E239" s="1">
+      <c r="E239">
         <v>42893.8125</v>
       </c>
     </row>
@@ -6373,7 +6367,7 @@
       <c r="D240" t="s">
         <v>561</v>
       </c>
-      <c r="E240" s="1">
+      <c r="E240">
         <v>42891.826388888891</v>
       </c>
     </row>
@@ -6390,7 +6384,7 @@
       <c r="D241" t="s">
         <v>561</v>
       </c>
-      <c r="E241" s="1">
+      <c r="E241">
         <v>42888.670138888891</v>
       </c>
     </row>
@@ -6407,7 +6401,7 @@
       <c r="D242" t="s">
         <v>561</v>
       </c>
-      <c r="E242" s="1">
+      <c r="E242">
         <v>42888.670138888891</v>
       </c>
     </row>
@@ -6424,7 +6418,7 @@
       <c r="D243" t="s">
         <v>561</v>
       </c>
-      <c r="E243" s="1">
+      <c r="E243">
         <v>42885.041666666664</v>
       </c>
     </row>
@@ -6441,7 +6435,7 @@
       <c r="D244" t="s">
         <v>561</v>
       </c>
-      <c r="E244" s="1">
+      <c r="E244">
         <v>42876.166666666664</v>
       </c>
     </row>
@@ -6458,7 +6452,7 @@
       <c r="D245" t="s">
         <v>561</v>
       </c>
-      <c r="E245" s="1">
+      <c r="E245">
         <v>42878.75</v>
       </c>
     </row>
@@ -6475,7 +6469,7 @@
       <c r="D246" t="s">
         <v>561</v>
       </c>
-      <c r="E246" s="1">
+      <c r="E246">
         <v>42873.630555555559</v>
       </c>
     </row>
@@ -6492,7 +6486,7 @@
       <c r="D247" t="s">
         <v>561</v>
       </c>
-      <c r="E247" s="1">
+      <c r="E247">
         <v>42872.715277777781</v>
       </c>
     </row>
@@ -6509,7 +6503,7 @@
       <c r="D248" t="s">
         <v>561</v>
       </c>
-      <c r="E248" s="1">
+      <c r="E248">
         <v>42869.607638888891</v>
       </c>
     </row>
@@ -6526,7 +6520,7 @@
       <c r="D249" t="s">
         <v>561</v>
       </c>
-      <c r="E249" s="1">
+      <c r="E249">
         <v>42863.864583333336</v>
       </c>
     </row>
@@ -6543,7 +6537,7 @@
       <c r="D250" t="s">
         <v>561</v>
       </c>
-      <c r="E250" s="1">
+      <c r="E250">
         <v>42862.8125</v>
       </c>
     </row>
@@ -6560,7 +6554,7 @@
       <c r="D251" t="s">
         <v>561</v>
       </c>
-      <c r="E251" s="1">
+      <c r="E251">
         <v>42852.75</v>
       </c>
     </row>
@@ -6577,7 +6571,7 @@
       <c r="D252" t="s">
         <v>561</v>
       </c>
-      <c r="E252" s="1">
+      <c r="E252">
         <v>42851.388888888891</v>
       </c>
     </row>
@@ -6594,7 +6588,7 @@
       <c r="D253" t="s">
         <v>561</v>
       </c>
-      <c r="E253" s="1">
+      <c r="E253">
         <v>42844.388888888891</v>
       </c>
     </row>
@@ -6611,7 +6605,7 @@
       <c r="D254" t="s">
         <v>561</v>
       </c>
-      <c r="E254" s="1">
+      <c r="E254">
         <v>42843.569444444445</v>
       </c>
     </row>
@@ -6628,7 +6622,7 @@
       <c r="D255" t="s">
         <v>561</v>
       </c>
-      <c r="E255" s="1">
+      <c r="E255">
         <v>42839.440972222219</v>
       </c>
     </row>
@@ -6645,7 +6639,7 @@
       <c r="D256" t="s">
         <v>561</v>
       </c>
-      <c r="E256" s="1">
+      <c r="E256">
         <v>42827.006944444445</v>
       </c>
     </row>
@@ -6662,7 +6656,7 @@
       <c r="D257" t="s">
         <v>561</v>
       </c>
-      <c r="E257" s="1">
+      <c r="E257">
         <v>42818.791666666664</v>
       </c>
     </row>
@@ -6679,7 +6673,7 @@
       <c r="D258" t="s">
         <v>561</v>
       </c>
-      <c r="E258" s="1">
+      <c r="E258">
         <v>42818.791666666664</v>
       </c>
     </row>
@@ -6696,7 +6690,7 @@
       <c r="D259" t="s">
         <v>561</v>
       </c>
-      <c r="E259" s="1">
+      <c r="E259">
         <v>42817.6875</v>
       </c>
     </row>
@@ -6713,7 +6707,7 @@
       <c r="D260" t="s">
         <v>561</v>
       </c>
-      <c r="E260" s="1">
+      <c r="E260">
         <v>42802.59375</v>
       </c>
     </row>
@@ -6730,7 +6724,7 @@
       <c r="D261" t="s">
         <v>561</v>
       </c>
-      <c r="E261" s="1">
+      <c r="E261">
         <v>42793.916666666664</v>
       </c>
     </row>
@@ -6747,7 +6741,7 @@
       <c r="D262" t="s">
         <v>561</v>
       </c>
-      <c r="E262" s="1">
+      <c r="E262">
         <v>42790.375</v>
       </c>
     </row>
@@ -6764,7 +6758,7 @@
       <c r="D263" t="s">
         <v>561</v>
       </c>
-      <c r="E263" s="1">
+      <c r="E263">
         <v>42789.833333333336</v>
       </c>
     </row>
@@ -6781,7 +6775,7 @@
       <c r="D264" t="s">
         <v>561</v>
       </c>
-      <c r="E264" s="1">
+      <c r="E264">
         <v>42789.833333333336</v>
       </c>
     </row>
@@ -6798,7 +6792,7 @@
       <c r="D265" t="s">
         <v>561</v>
       </c>
-      <c r="E265" s="1">
+      <c r="E265">
         <v>42790.875</v>
       </c>
     </row>
@@ -6815,7 +6809,7 @@
       <c r="D266" t="s">
         <v>561</v>
       </c>
-      <c r="E266" s="1">
+      <c r="E266">
         <v>42790.875</v>
       </c>
     </row>
@@ -6832,7 +6826,7 @@
       <c r="D267" t="s">
         <v>561</v>
       </c>
-      <c r="E267" s="1">
+      <c r="E267">
         <v>42782.711805555555</v>
       </c>
     </row>
@@ -6849,7 +6843,7 @@
       <c r="D268" t="s">
         <v>561</v>
       </c>
-      <c r="E268" s="1">
+      <c r="E268">
         <v>42782.711805555555</v>
       </c>
     </row>
@@ -6866,7 +6860,7 @@
       <c r="D269" t="s">
         <v>561</v>
       </c>
-      <c r="E269" s="1">
+      <c r="E269">
         <v>42775.965277777781</v>
       </c>
     </row>
@@ -6883,7 +6877,7 @@
       <c r="D270" t="s">
         <v>561</v>
       </c>
-      <c r="E270" s="1">
+      <c r="E270">
         <v>42773.611111111109</v>
       </c>
     </row>
@@ -6900,7 +6894,7 @@
       <c r="D271" t="s">
         <v>561</v>
       </c>
-      <c r="E271" s="1">
+      <c r="E271">
         <v>42767.465277777781</v>
       </c>
     </row>
@@ -6917,7 +6911,7 @@
       <c r="D272" t="s">
         <v>561</v>
       </c>
-      <c r="E272" s="1">
+      <c r="E272">
         <v>42765.770833333336</v>
       </c>
     </row>
@@ -6934,7 +6928,7 @@
       <c r="D273" t="s">
         <v>561</v>
       </c>
-      <c r="E273" s="1">
+      <c r="E273">
         <v>42766.472222222219</v>
       </c>
     </row>
@@ -6951,7 +6945,7 @@
       <c r="D274" t="s">
         <v>561</v>
       </c>
-      <c r="E274" s="1">
+      <c r="E274">
         <v>42762.895833333336</v>
       </c>
     </row>
@@ -6968,7 +6962,7 @@
       <c r="D275" t="s">
         <v>561</v>
       </c>
-      <c r="E275" s="1">
+      <c r="E275">
         <v>42762.895833333336</v>
       </c>
     </row>
@@ -6985,7 +6979,7 @@
       <c r="D276" t="s">
         <v>561</v>
       </c>
-      <c r="E276" s="1">
+      <c r="E276">
         <v>42759.256944444445</v>
       </c>
     </row>
@@ -7002,7 +6996,7 @@
       <c r="D277" t="s">
         <v>561</v>
       </c>
-      <c r="E277" s="1">
+      <c r="E277">
         <v>42759.256944444445</v>
       </c>
     </row>
@@ -7019,7 +7013,7 @@
       <c r="D278" t="s">
         <v>561</v>
       </c>
-      <c r="E278" s="1">
+      <c r="E278">
         <v>42763.913194444445</v>
       </c>
     </row>
@@ -7036,7 +7030,7 @@
       <c r="D279" t="s">
         <v>561</v>
       </c>
-      <c r="E279" s="1">
+      <c r="E279">
         <v>42757.131944444445</v>
       </c>
     </row>
@@ -7053,7 +7047,7 @@
       <c r="D280" t="s">
         <v>561</v>
       </c>
-      <c r="E280" s="1">
+      <c r="E280">
         <v>42757.131944444445</v>
       </c>
     </row>
@@ -7070,7 +7064,7 @@
       <c r="D281" t="s">
         <v>561</v>
       </c>
-      <c r="E281" s="1">
+      <c r="E281">
         <v>42753.541666666664</v>
       </c>
     </row>
@@ -7087,7 +7081,7 @@
       <c r="D282" t="s">
         <v>561</v>
       </c>
-      <c r="E282" s="1">
+      <c r="E282">
         <v>42752.506944444445</v>
       </c>
     </row>
@@ -7104,7 +7098,7 @@
       <c r="D283" t="s">
         <v>561</v>
       </c>
-      <c r="E283" s="1">
+      <c r="E283">
         <v>42748.9375</v>
       </c>
     </row>
@@ -7121,7 +7115,7 @@
       <c r="D284" t="s">
         <v>561</v>
       </c>
-      <c r="E284" s="1">
+      <c r="E284">
         <v>42742.75</v>
       </c>
     </row>
@@ -7138,7 +7132,7 @@
       <c r="D285" t="s">
         <v>561</v>
       </c>
-      <c r="E285" s="1">
+      <c r="E285">
         <v>42743.208333333336</v>
       </c>
     </row>
@@ -7155,7 +7149,7 @@
       <c r="D286" t="s">
         <v>561</v>
       </c>
-      <c r="E286" s="1">
+      <c r="E286">
         <v>42740.0625</v>
       </c>
     </row>
@@ -7172,7 +7166,7 @@
       <c r="D287" t="s">
         <v>561</v>
       </c>
-      <c r="E287" s="1">
+      <c r="E287">
         <v>42736.444444444445</v>
       </c>
     </row>
@@ -7189,7 +7183,7 @@
       <c r="D288" t="s">
         <v>561</v>
       </c>
-      <c r="E288" s="1">
+      <c r="E288">
         <v>42736.444444444445</v>
       </c>
     </row>
@@ -7206,7 +7200,7 @@
       <c r="D289" t="s">
         <v>561</v>
       </c>
-      <c r="E289" s="1">
+      <c r="E289">
         <v>42734.697916666664</v>
       </c>
     </row>
@@ -7223,7 +7217,7 @@
       <c r="D290" t="s">
         <v>561</v>
       </c>
-      <c r="E290" s="1">
+      <c r="E290">
         <v>42734.416666666664</v>
       </c>
     </row>
@@ -7240,7 +7234,7 @@
       <c r="D291" t="s">
         <v>561</v>
       </c>
-      <c r="E291" s="1">
+      <c r="E291">
         <v>42716.333333333336</v>
       </c>
     </row>
@@ -7257,7 +7251,7 @@
       <c r="D292" t="s">
         <v>561</v>
       </c>
-      <c r="E292" s="1">
+      <c r="E292">
         <v>42705.8125</v>
       </c>
     </row>
@@ -7274,7 +7268,7 @@
       <c r="D293" t="s">
         <v>561</v>
       </c>
-      <c r="E293" s="1">
+      <c r="E293">
         <v>42702.366666666669</v>
       </c>
     </row>
@@ -7291,7 +7285,7 @@
       <c r="D294" t="s">
         <v>561</v>
       </c>
-      <c r="E294" s="1">
+      <c r="E294">
         <v>42702.366666666669</v>
       </c>
     </row>
@@ -7308,7 +7302,7 @@
       <c r="D295" t="s">
         <v>561</v>
       </c>
-      <c r="E295" s="1">
+      <c r="E295">
         <v>42699.815972222219</v>
       </c>
     </row>
@@ -7325,7 +7319,7 @@
       <c r="D296" t="s">
         <v>561</v>
       </c>
-      <c r="E296" s="1">
+      <c r="E296">
         <v>42689.385416666664</v>
       </c>
     </row>
@@ -7342,7 +7336,7 @@
       <c r="D297" t="s">
         <v>561</v>
       </c>
-      <c r="E297" s="1">
+      <c r="E297">
         <v>42634</v>
       </c>
     </row>
@@ -7359,7 +7353,7 @@
       <c r="D298" t="s">
         <v>561</v>
       </c>
-      <c r="E298" s="1">
+      <c r="E298">
         <v>42626.569444444445</v>
       </c>
     </row>
@@ -7376,7 +7370,7 @@
       <c r="D299" t="s">
         <v>561</v>
       </c>
-      <c r="E299" s="1">
+      <c r="E299">
         <v>42626.569444444445</v>
       </c>
     </row>
@@ -7393,7 +7387,7 @@
       <c r="D300" t="s">
         <v>561</v>
       </c>
-      <c r="E300" s="1">
+      <c r="E300">
         <v>42622.104166666664</v>
       </c>
     </row>
@@ -7410,7 +7404,7 @@
       <c r="D301" t="s">
         <v>561</v>
       </c>
-      <c r="E301" s="1">
+      <c r="E301">
         <v>42611.104166666664</v>
       </c>
     </row>
@@ -7427,7 +7421,7 @@
       <c r="D302" t="s">
         <v>561</v>
       </c>
-      <c r="E302" s="1">
+      <c r="E302">
         <v>42596.274305555555</v>
       </c>
     </row>
@@ -7444,7 +7438,7 @@
       <c r="D303" t="s">
         <v>561</v>
       </c>
-      <c r="E303" s="1">
+      <c r="E303">
         <v>42596.274305555555</v>
       </c>
     </row>
@@ -7461,7 +7455,7 @@
       <c r="D304" t="s">
         <v>561</v>
       </c>
-      <c r="E304" s="1">
+      <c r="E304">
         <v>42577.871527777781</v>
       </c>
     </row>
@@ -7478,7 +7472,7 @@
       <c r="D305" t="s">
         <v>561</v>
       </c>
-      <c r="E305" s="1">
+      <c r="E305">
         <v>42552.284722222219</v>
       </c>
     </row>
@@ -7495,7 +7489,7 @@
       <c r="D306" t="s">
         <v>561</v>
       </c>
-      <c r="E306" s="1">
+      <c r="E306">
         <v>42545.506944444445</v>
       </c>
     </row>
@@ -7512,7 +7506,7 @@
       <c r="D307" t="s">
         <v>561</v>
       </c>
-      <c r="E307" s="1">
+      <c r="E307">
         <v>42545.506944444445</v>
       </c>
     </row>
@@ -7529,7 +7523,7 @@
       <c r="D308" t="s">
         <v>561</v>
       </c>
-      <c r="E308" s="1">
+      <c r="E308">
         <v>42522.770833333336</v>
       </c>
     </row>
@@ -7546,7 +7540,7 @@
       <c r="D309" t="s">
         <v>561</v>
       </c>
-      <c r="E309" s="1">
+      <c r="E309">
         <v>42506.736111111109</v>
       </c>
     </row>
@@ -7563,7 +7557,7 @@
       <c r="D310" t="s">
         <v>561</v>
       </c>
-      <c r="E310" s="1">
+      <c r="E310">
         <v>42493.78125</v>
       </c>
     </row>
@@ -7580,7 +7574,7 @@
       <c r="D311" t="s">
         <v>561</v>
       </c>
-      <c r="E311" s="1">
+      <c r="E311">
         <v>42493.78125</v>
       </c>
     </row>
@@ -7597,7 +7591,7 @@
       <c r="D312" t="s">
         <v>561</v>
       </c>
-      <c r="E312" s="1">
+      <c r="E312">
         <v>42491.215277777781</v>
       </c>
     </row>
@@ -7614,7 +7608,7 @@
       <c r="D313" t="s">
         <v>561</v>
       </c>
-      <c r="E313" s="1">
+      <c r="E313">
         <v>42345.270833333336</v>
       </c>
     </row>
@@ -7631,7 +7625,7 @@
       <c r="D314" t="s">
         <v>561</v>
       </c>
-      <c r="E314" s="1">
+      <c r="E314">
         <v>42345.270833333336</v>
       </c>
     </row>
@@ -7648,7 +7642,7 @@
       <c r="D315" t="s">
         <v>561</v>
       </c>
-      <c r="E315" s="1">
+      <c r="E315">
         <v>42257.899305555555</v>
       </c>
     </row>
@@ -7665,7 +7659,7 @@
       <c r="D316" t="s">
         <v>561</v>
       </c>
-      <c r="E316" s="1">
+      <c r="E316">
         <v>42257.899305555555</v>
       </c>
     </row>
@@ -7682,7 +7676,7 @@
       <c r="D317" t="s">
         <v>561</v>
       </c>
-      <c r="E317" s="1">
+      <c r="E317">
         <v>42122.041666666664</v>
       </c>
     </row>
@@ -7699,7 +7693,7 @@
       <c r="D318" t="s">
         <v>561</v>
       </c>
-      <c r="E318" s="1">
+      <c r="E318">
         <v>42102.017361111109</v>
       </c>
     </row>
@@ -7716,7 +7710,7 @@
       <c r="D319" t="s">
         <v>561</v>
       </c>
-      <c r="E319" s="1">
+      <c r="E319">
         <v>41982.479166666664</v>
       </c>
     </row>
@@ -7733,7 +7727,7 @@
       <c r="D320" t="s">
         <v>561</v>
       </c>
-      <c r="E320" s="1">
+      <c r="E320">
         <v>41982.479166666664</v>
       </c>
     </row>
@@ -7750,7 +7744,7 @@
       <c r="D321" t="s">
         <v>561</v>
       </c>
-      <c r="E321" s="1">
+      <c r="E321">
         <v>41954.708333333336</v>
       </c>
     </row>
@@ -7767,7 +7761,7 @@
       <c r="D322" t="s">
         <v>561</v>
       </c>
-      <c r="E322" s="1">
+      <c r="E322">
         <v>41955.840277777781</v>
       </c>
     </row>
@@ -7784,7 +7778,7 @@
       <c r="D323" t="s">
         <v>561</v>
       </c>
-      <c r="E323" s="1">
+      <c r="E323">
         <v>41900</v>
       </c>
     </row>
@@ -7801,7 +7795,7 @@
       <c r="D324" t="s">
         <v>561</v>
       </c>
-      <c r="E324" s="1">
+      <c r="E324">
         <v>41899</v>
       </c>
     </row>
@@ -7818,7 +7812,7 @@
       <c r="D325" t="s">
         <v>561</v>
       </c>
-      <c r="E325" s="1">
+      <c r="E325">
         <v>41844</v>
       </c>
     </row>
@@ -7835,7 +7829,7 @@
       <c r="D326" t="s">
         <v>561</v>
       </c>
-      <c r="E326" s="1">
+      <c r="E326">
         <v>41837</v>
       </c>
     </row>
@@ -7852,7 +7846,7 @@
       <c r="D327" t="s">
         <v>561</v>
       </c>
-      <c r="E327" s="1">
+      <c r="E327">
         <v>41747</v>
       </c>
     </row>
@@ -7869,7 +7863,7 @@
       <c r="D328" t="s">
         <v>561</v>
       </c>
-      <c r="E328" s="1">
+      <c r="E328">
         <v>41731</v>
       </c>
     </row>
@@ -7886,7 +7880,7 @@
       <c r="D329" t="s">
         <v>561</v>
       </c>
-      <c r="E329" s="1">
+      <c r="E329">
         <v>41732</v>
       </c>
     </row>
@@ -7903,7 +7897,7 @@
       <c r="D330" t="s">
         <v>561</v>
       </c>
-      <c r="E330" s="1">
+      <c r="E330">
         <v>41732</v>
       </c>
     </row>
@@ -7920,7 +7914,7 @@
       <c r="D331" t="s">
         <v>561</v>
       </c>
-      <c r="E331" s="1">
+      <c r="E331">
         <v>41728</v>
       </c>
     </row>
@@ -7937,7 +7931,7 @@
       <c r="D332" t="s">
         <v>561</v>
       </c>
-      <c r="E332" s="1">
+      <c r="E332">
         <v>41712</v>
       </c>
     </row>
@@ -7954,7 +7948,7 @@
       <c r="D333" t="s">
         <v>561</v>
       </c>
-      <c r="E333" s="1">
+      <c r="E333">
         <v>41712</v>
       </c>
     </row>
@@ -7971,7 +7965,7 @@
       <c r="D334" t="s">
         <v>561</v>
       </c>
-      <c r="E334" s="1">
+      <c r="E334">
         <v>41703</v>
       </c>
     </row>
@@ -7988,7 +7982,7 @@
       <c r="D335" t="s">
         <v>561</v>
       </c>
-      <c r="E335" s="1">
+      <c r="E335">
         <v>41688</v>
       </c>
     </row>
@@ -8005,7 +7999,7 @@
       <c r="D336" t="s">
         <v>561</v>
       </c>
-      <c r="E336" s="1">
+      <c r="E336">
         <v>41682</v>
       </c>
     </row>
@@ -8022,7 +8016,7 @@
       <c r="D337" t="s">
         <v>561</v>
       </c>
-      <c r="E337" s="1">
+      <c r="E337">
         <v>41659</v>
       </c>
     </row>
@@ -8039,7 +8033,7 @@
       <c r="D338" t="s">
         <v>561</v>
       </c>
-      <c r="E338" s="1">
+      <c r="E338">
         <v>41645</v>
       </c>
     </row>
@@ -8056,7 +8050,7 @@
       <c r="D339" t="s">
         <v>561</v>
       </c>
-      <c r="E339" s="1">
+      <c r="E339">
         <v>41637</v>
       </c>
     </row>
@@ -8073,7 +8067,7 @@
       <c r="D340" t="s">
         <v>561</v>
       </c>
-      <c r="E340" s="1">
+      <c r="E340">
         <v>41619</v>
       </c>
     </row>
@@ -8090,7 +8084,7 @@
       <c r="D341" t="s">
         <v>561</v>
       </c>
-      <c r="E341" s="1">
+      <c r="E341">
         <v>41620</v>
       </c>
     </row>
@@ -8107,7 +8101,7 @@
       <c r="D342" t="s">
         <v>561</v>
       </c>
-      <c r="E342" s="1">
+      <c r="E342">
         <v>41612</v>
       </c>
     </row>
@@ -8124,7 +8118,7 @@
       <c r="D343" t="s">
         <v>561</v>
       </c>
-      <c r="E343" s="1">
+      <c r="E343">
         <v>41582</v>
       </c>
     </row>
@@ -8141,7 +8135,7 @@
       <c r="D344" t="s">
         <v>561</v>
       </c>
-      <c r="E344" s="1">
+      <c r="E344">
         <v>41546</v>
       </c>
     </row>
@@ -8158,7 +8152,7 @@
       <c r="D345" t="s">
         <v>561</v>
       </c>
-      <c r="E345" s="1">
+      <c r="E345">
         <v>41493</v>
       </c>
     </row>
@@ -8175,7 +8169,7 @@
       <c r="D346" t="s">
         <v>561</v>
       </c>
-      <c r="E346" s="1">
+      <c r="E346">
         <v>41449</v>
       </c>
     </row>
@@ -8192,7 +8186,7 @@
       <c r="D347" t="s">
         <v>561</v>
       </c>
-      <c r="E347" s="1">
+      <c r="E347">
         <v>41413</v>
       </c>
     </row>
@@ -8209,7 +8203,7 @@
       <c r="D348" t="s">
         <v>561</v>
       </c>
-      <c r="E348" s="1">
+      <c r="E348">
         <v>41413</v>
       </c>
     </row>
@@ -8226,7 +8220,7 @@
       <c r="D349" t="s">
         <v>561</v>
       </c>
-      <c r="E349" s="1">
+      <c r="E349">
         <v>41351</v>
       </c>
     </row>
@@ -8243,7 +8237,7 @@
       <c r="D350" t="s">
         <v>561</v>
       </c>
-      <c r="E350" s="1">
+      <c r="E350">
         <v>41331</v>
       </c>
     </row>
@@ -8260,7 +8254,7 @@
       <c r="D351" t="s">
         <v>561</v>
       </c>
-      <c r="E351" s="1">
+      <c r="E351">
         <v>41318</v>
       </c>
     </row>
@@ -8277,7 +8271,7 @@
       <c r="D352" t="s">
         <v>561</v>
       </c>
-      <c r="E352" s="1">
+      <c r="E352">
         <v>41273</v>
       </c>
     </row>
@@ -8294,7 +8288,7 @@
       <c r="D353" t="s">
         <v>561</v>
       </c>
-      <c r="E353" s="1">
+      <c r="E353">
         <v>41053</v>
       </c>
     </row>
@@ -8311,7 +8305,7 @@
       <c r="D354" t="s">
         <v>561</v>
       </c>
-      <c r="E354" s="1">
+      <c r="E354">
         <v>41024</v>
       </c>
     </row>
@@ -8328,7 +8322,7 @@
       <c r="D355" t="s">
         <v>561</v>
       </c>
-      <c r="E355" s="1">
+      <c r="E355">
         <v>40632</v>
       </c>
     </row>
@@ -8345,7 +8339,7 @@
       <c r="D356" t="s">
         <v>561</v>
       </c>
-      <c r="E356" s="1">
+      <c r="E356">
         <v>40622</v>
       </c>
     </row>
@@ -8362,7 +8356,7 @@
       <c r="D357" t="s">
         <v>563</v>
       </c>
-      <c r="E357" s="1">
+      <c r="E357">
         <v>42860</v>
       </c>
     </row>
@@ -8379,7 +8373,7 @@
       <c r="D358" t="s">
         <v>563</v>
       </c>
-      <c r="E358" s="1">
+      <c r="E358">
         <v>43051</v>
       </c>
     </row>
@@ -8396,7 +8390,7 @@
       <c r="D359" t="s">
         <v>563</v>
       </c>
-      <c r="E359" s="1">
+      <c r="E359">
         <v>43047</v>
       </c>
     </row>
@@ -8413,7 +8407,7 @@
       <c r="D360" t="s">
         <v>563</v>
       </c>
-      <c r="E360" s="1">
+      <c r="E360">
         <v>43053</v>
       </c>
     </row>
@@ -8430,7 +8424,7 @@
       <c r="D361" t="s">
         <v>563</v>
       </c>
-      <c r="E361" s="1">
+      <c r="E361">
         <v>43047</v>
       </c>
     </row>
@@ -8447,7 +8441,7 @@
       <c r="D362" t="s">
         <v>563</v>
       </c>
-      <c r="E362" s="1">
+      <c r="E362">
         <v>43060</v>
       </c>
     </row>
@@ -8464,7 +8458,7 @@
       <c r="D363" t="s">
         <v>563</v>
       </c>
-      <c r="E363" s="1">
+      <c r="E363">
         <v>43074</v>
       </c>
     </row>
@@ -8481,7 +8475,7 @@
       <c r="D364" t="s">
         <v>563</v>
       </c>
-      <c r="E364" s="1">
+      <c r="E364">
         <v>43096</v>
       </c>
     </row>
@@ -8498,7 +8492,7 @@
       <c r="D365" t="s">
         <v>563</v>
       </c>
-      <c r="E365" s="1">
+      <c r="E365">
         <v>43097</v>
       </c>
     </row>
@@ -8515,7 +8509,7 @@
       <c r="D366" t="s">
         <v>563</v>
       </c>
-      <c r="E366" s="1">
+      <c r="E366">
         <v>42510</v>
       </c>
     </row>
@@ -8532,7 +8526,7 @@
       <c r="D367" t="s">
         <v>563</v>
       </c>
-      <c r="E367" s="1">
+      <c r="E367">
         <v>42731</v>
       </c>
     </row>
@@ -8549,7 +8543,7 @@
       <c r="D368" t="s">
         <v>563</v>
       </c>
-      <c r="E368" s="1">
+      <c r="E368">
         <v>42972</v>
       </c>
     </row>
@@ -8566,7 +8560,7 @@
       <c r="D369" t="s">
         <v>563</v>
       </c>
-      <c r="E369" s="1">
+      <c r="E369">
         <v>42993</v>
       </c>
     </row>
@@ -8583,7 +8577,7 @@
       <c r="D370" t="s">
         <v>563</v>
       </c>
-      <c r="E370" s="1">
+      <c r="E370">
         <v>43038</v>
       </c>
     </row>
@@ -8600,7 +8594,7 @@
       <c r="D371" t="s">
         <v>563</v>
       </c>
-      <c r="E371" s="1">
+      <c r="E371">
         <v>43082</v>
       </c>
     </row>
@@ -8617,7 +8611,7 @@
       <c r="D372" t="s">
         <v>563</v>
       </c>
-      <c r="E372" s="1">
+      <c r="E372">
         <v>43099</v>
       </c>
     </row>
@@ -8634,7 +8628,7 @@
       <c r="D373" t="s">
         <v>563</v>
       </c>
-      <c r="E373" s="1">
+      <c r="E373">
         <v>43013</v>
       </c>
     </row>
@@ -8651,7 +8645,7 @@
       <c r="D374" t="s">
         <v>563</v>
       </c>
-      <c r="E374" s="1">
+      <c r="E374">
         <v>43055</v>
       </c>
     </row>
@@ -8668,7 +8662,7 @@
       <c r="D375" t="s">
         <v>563</v>
       </c>
-      <c r="E375" s="1">
+      <c r="E375">
         <v>43053</v>
       </c>
     </row>
@@ -8685,7 +8679,7 @@
       <c r="D376" t="s">
         <v>563</v>
       </c>
-      <c r="E376" s="1">
+      <c r="E376">
         <v>43062</v>
       </c>
     </row>
@@ -8702,7 +8696,7 @@
       <c r="D377" t="s">
         <v>563</v>
       </c>
-      <c r="E377" s="1">
+      <c r="E377">
         <v>43069</v>
       </c>
     </row>
@@ -8719,7 +8713,7 @@
       <c r="D378" t="s">
         <v>563</v>
       </c>
-      <c r="E378" s="1">
+      <c r="E378">
         <v>43071</v>
       </c>
     </row>
@@ -8736,7 +8730,7 @@
       <c r="D379" t="s">
         <v>563</v>
       </c>
-      <c r="E379" s="1">
+      <c r="E379">
         <v>43076</v>
       </c>
     </row>
@@ -8753,7 +8747,7 @@
       <c r="D380" t="s">
         <v>563</v>
       </c>
-      <c r="E380" s="1">
+      <c r="E380">
         <v>43090</v>
       </c>
     </row>
@@ -8770,7 +8764,7 @@
       <c r="D381" t="s">
         <v>563</v>
       </c>
-      <c r="E381" s="1">
+      <c r="E381">
         <v>43090</v>
       </c>
     </row>
@@ -8787,7 +8781,7 @@
       <c r="D382" t="s">
         <v>563</v>
       </c>
-      <c r="E382" s="1">
+      <c r="E382">
         <v>43071</v>
       </c>
     </row>
@@ -8804,7 +8798,7 @@
       <c r="D383" t="s">
         <v>563</v>
       </c>
-      <c r="E383" s="1">
+      <c r="E383">
         <v>43071</v>
       </c>
     </row>
@@ -8821,7 +8815,7 @@
       <c r="D384" t="s">
         <v>563</v>
       </c>
-      <c r="E384" s="1">
+      <c r="E384">
         <v>43051</v>
       </c>
     </row>
@@ -8838,7 +8832,7 @@
       <c r="D385" t="s">
         <v>563</v>
       </c>
-      <c r="E385" s="1">
+      <c r="E385">
         <v>43072</v>
       </c>
     </row>
@@ -8855,7 +8849,7 @@
       <c r="D386" t="s">
         <v>563</v>
       </c>
-      <c r="E386" s="1">
+      <c r="E386">
         <v>43094</v>
       </c>
     </row>
@@ -8872,7 +8866,7 @@
       <c r="D387" t="s">
         <v>563</v>
       </c>
-      <c r="E387" s="1">
+      <c r="E387">
         <v>43094</v>
       </c>
     </row>
@@ -8889,7 +8883,7 @@
       <c r="D388" t="s">
         <v>563</v>
       </c>
-      <c r="E388" s="1">
+      <c r="E388">
         <v>43075</v>
       </c>
     </row>
@@ -8906,7 +8900,7 @@
       <c r="D389" t="s">
         <v>563</v>
       </c>
-      <c r="E389" s="1">
+      <c r="E389">
         <v>42978</v>
       </c>
     </row>
@@ -8923,7 +8917,7 @@
       <c r="D390" t="s">
         <v>563</v>
       </c>
-      <c r="E390" s="1">
+      <c r="E390">
         <v>42966</v>
       </c>
     </row>
@@ -8940,7 +8934,7 @@
       <c r="D391" t="s">
         <v>563</v>
       </c>
-      <c r="E391" s="1" t="s">
+      <c r="E391" t="s">
         <v>564</v>
       </c>
     </row>
@@ -8957,7 +8951,7 @@
       <c r="D392" t="s">
         <v>563</v>
       </c>
-      <c r="E392" s="1" t="s">
+      <c r="E392" t="s">
         <v>251</v>
       </c>
     </row>
@@ -8974,7 +8968,7 @@
       <c r="D393" t="s">
         <v>563</v>
       </c>
-      <c r="E393" s="1" t="s">
+      <c r="E393" t="s">
         <v>252</v>
       </c>
     </row>
@@ -8991,7 +8985,7 @@
       <c r="D394" t="s">
         <v>563</v>
       </c>
-      <c r="E394" s="1" t="s">
+      <c r="E394" t="s">
         <v>253</v>
       </c>
     </row>
@@ -9008,7 +9002,7 @@
       <c r="D395" t="s">
         <v>563</v>
       </c>
-      <c r="E395" s="1" t="s">
+      <c r="E395" t="s">
         <v>254</v>
       </c>
     </row>
@@ -9025,7 +9019,7 @@
       <c r="D396" t="s">
         <v>563</v>
       </c>
-      <c r="E396" s="1" t="s">
+      <c r="E396" t="s">
         <v>254</v>
       </c>
     </row>
@@ -9042,7 +9036,7 @@
       <c r="D397" t="s">
         <v>563</v>
       </c>
-      <c r="E397" s="1" t="s">
+      <c r="E397" t="s">
         <v>271</v>
       </c>
     </row>
@@ -9059,7 +9053,7 @@
       <c r="D398" t="s">
         <v>563</v>
       </c>
-      <c r="E398" s="1" t="s">
+      <c r="E398" t="s">
         <v>255</v>
       </c>
     </row>
@@ -9076,7 +9070,7 @@
       <c r="D399" t="s">
         <v>563</v>
       </c>
-      <c r="E399" s="1" t="s">
+      <c r="E399" t="s">
         <v>256</v>
       </c>
     </row>
@@ -9093,7 +9087,7 @@
       <c r="D400" t="s">
         <v>563</v>
       </c>
-      <c r="E400" s="1" t="s">
+      <c r="E400" t="s">
         <v>257</v>
       </c>
     </row>
@@ -9110,7 +9104,7 @@
       <c r="D401" t="s">
         <v>563</v>
       </c>
-      <c r="E401" s="1" t="s">
+      <c r="E401" t="s">
         <v>258</v>
       </c>
     </row>
@@ -9127,7 +9121,7 @@
       <c r="D402" t="s">
         <v>563</v>
       </c>
-      <c r="E402" s="1" t="s">
+      <c r="E402" t="s">
         <v>259</v>
       </c>
     </row>
@@ -9144,7 +9138,7 @@
       <c r="D403" t="s">
         <v>563</v>
       </c>
-      <c r="E403" s="1" t="s">
+      <c r="E403" t="s">
         <v>260</v>
       </c>
     </row>
@@ -9161,7 +9155,7 @@
       <c r="D404" t="s">
         <v>563</v>
       </c>
-      <c r="E404" s="1" t="s">
+      <c r="E404" t="s">
         <v>260</v>
       </c>
     </row>
@@ -9178,7 +9172,7 @@
       <c r="D405" t="s">
         <v>563</v>
       </c>
-      <c r="E405" s="1" t="s">
+      <c r="E405" t="s">
         <v>260</v>
       </c>
     </row>
@@ -9195,7 +9189,7 @@
       <c r="D406" t="s">
         <v>563</v>
       </c>
-      <c r="E406" s="1" t="s">
+      <c r="E406" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9212,7 +9206,7 @@
       <c r="D407" t="s">
         <v>563</v>
       </c>
-      <c r="E407" s="1" t="s">
+      <c r="E407" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9229,7 +9223,7 @@
       <c r="D408" t="s">
         <v>563</v>
       </c>
-      <c r="E408" s="1" t="s">
+      <c r="E408" t="s">
         <v>262</v>
       </c>
     </row>
@@ -9246,7 +9240,7 @@
       <c r="D409" t="s">
         <v>563</v>
       </c>
-      <c r="E409" s="1" t="s">
+      <c r="E409" t="s">
         <v>263</v>
       </c>
     </row>
@@ -9263,7 +9257,7 @@
       <c r="D410" t="s">
         <v>563</v>
       </c>
-      <c r="E410" s="1" t="s">
+      <c r="E410" t="s">
         <v>263</v>
       </c>
     </row>
@@ -9280,7 +9274,7 @@
       <c r="D411" t="s">
         <v>563</v>
       </c>
-      <c r="E411" s="1" t="s">
+      <c r="E411" t="s">
         <v>263</v>
       </c>
     </row>
@@ -9297,7 +9291,7 @@
       <c r="D412" t="s">
         <v>563</v>
       </c>
-      <c r="E412" s="1" t="s">
+      <c r="E412" t="s">
         <v>263</v>
       </c>
     </row>
@@ -9314,7 +9308,7 @@
       <c r="D413" t="s">
         <v>563</v>
       </c>
-      <c r="E413" s="1" t="s">
+      <c r="E413" t="s">
         <v>263</v>
       </c>
     </row>
@@ -9331,7 +9325,7 @@
       <c r="D414" t="s">
         <v>563</v>
       </c>
-      <c r="E414" s="1" t="s">
+      <c r="E414" t="s">
         <v>565</v>
       </c>
     </row>
@@ -9348,7 +9342,7 @@
       <c r="D415" t="s">
         <v>563</v>
       </c>
-      <c r="E415" s="1" t="s">
+      <c r="E415" t="s">
         <v>264</v>
       </c>
     </row>
@@ -9365,7 +9359,7 @@
       <c r="D416" t="s">
         <v>563</v>
       </c>
-      <c r="E416" s="1" t="s">
+      <c r="E416" t="s">
         <v>264</v>
       </c>
     </row>
@@ -9382,7 +9376,7 @@
       <c r="D417" t="s">
         <v>563</v>
       </c>
-      <c r="E417" s="1" t="s">
+      <c r="E417" t="s">
         <v>566</v>
       </c>
     </row>
@@ -9399,7 +9393,7 @@
       <c r="D418" t="s">
         <v>563</v>
       </c>
-      <c r="E418" s="1" t="s">
+      <c r="E418" t="s">
         <v>265</v>
       </c>
     </row>
@@ -9416,7 +9410,7 @@
       <c r="D419" t="s">
         <v>563</v>
       </c>
-      <c r="E419" s="1" t="s">
+      <c r="E419" t="s">
         <v>266</v>
       </c>
     </row>
@@ -9433,7 +9427,7 @@
       <c r="D420" t="s">
         <v>563</v>
       </c>
-      <c r="E420" s="1" t="s">
+      <c r="E420" t="s">
         <v>267</v>
       </c>
     </row>
@@ -9450,7 +9444,7 @@
       <c r="D421" t="s">
         <v>563</v>
       </c>
-      <c r="E421" s="1" t="s">
+      <c r="E421" t="s">
         <v>567</v>
       </c>
     </row>
@@ -9467,7 +9461,7 @@
       <c r="D422" t="s">
         <v>563</v>
       </c>
-      <c r="E422" s="1" t="s">
+      <c r="E422" t="s">
         <v>567</v>
       </c>
     </row>
@@ -9484,7 +9478,7 @@
       <c r="D423" t="s">
         <v>563</v>
       </c>
-      <c r="E423" s="1" t="s">
+      <c r="E423" t="s">
         <v>268</v>
       </c>
     </row>
@@ -9501,7 +9495,7 @@
       <c r="D424" t="s">
         <v>563</v>
       </c>
-      <c r="E424" s="1" t="s">
+      <c r="E424" t="s">
         <v>268</v>
       </c>
     </row>
@@ -9518,7 +9512,7 @@
       <c r="D425" t="s">
         <v>563</v>
       </c>
-      <c r="E425" s="1" t="s">
+      <c r="E425" t="s">
         <v>269</v>
       </c>
     </row>
@@ -9535,7 +9529,7 @@
       <c r="D426" t="s">
         <v>563</v>
       </c>
-      <c r="E426" s="1" t="s">
+      <c r="E426" t="s">
         <v>270</v>
       </c>
     </row>
@@ -9552,7 +9546,7 @@
       <c r="D427" t="s">
         <v>563</v>
       </c>
-      <c r="E427" s="1" t="s">
+      <c r="E427" t="s">
         <v>272</v>
       </c>
     </row>
@@ -9569,7 +9563,7 @@
       <c r="D428" t="s">
         <v>563</v>
       </c>
-      <c r="E428" s="1" t="s">
+      <c r="E428" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9586,7 +9580,7 @@
       <c r="D429" t="s">
         <v>563</v>
       </c>
-      <c r="E429" s="1" t="s">
+      <c r="E429" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9603,7 +9597,7 @@
       <c r="D430" t="s">
         <v>563</v>
       </c>
-      <c r="E430" s="1" t="s">
+      <c r="E430" t="s">
         <v>330</v>
       </c>
     </row>
@@ -9620,7 +9614,7 @@
       <c r="D431" t="s">
         <v>563</v>
       </c>
-      <c r="E431" s="1" t="s">
+      <c r="E431" t="s">
         <v>290</v>
       </c>
     </row>
@@ -9637,7 +9631,7 @@
       <c r="D432" t="s">
         <v>563</v>
       </c>
-      <c r="E432" s="1" t="s">
+      <c r="E432" t="s">
         <v>291</v>
       </c>
     </row>
@@ -9654,7 +9648,7 @@
       <c r="D433" t="s">
         <v>563</v>
       </c>
-      <c r="E433" s="1" t="s">
+      <c r="E433" t="s">
         <v>293</v>
       </c>
     </row>
@@ -9671,7 +9665,7 @@
       <c r="D434" t="s">
         <v>563</v>
       </c>
-      <c r="E434" s="1" t="s">
+      <c r="E434" t="s">
         <v>294</v>
       </c>
     </row>
@@ -9688,7 +9682,7 @@
       <c r="D435" t="s">
         <v>563</v>
       </c>
-      <c r="E435" s="1" t="s">
+      <c r="E435" t="s">
         <v>295</v>
       </c>
     </row>
@@ -9705,7 +9699,7 @@
       <c r="D436" t="s">
         <v>563</v>
       </c>
-      <c r="E436" s="1" t="s">
+      <c r="E436" t="s">
         <v>296</v>
       </c>
     </row>
@@ -9722,7 +9716,7 @@
       <c r="D437" t="s">
         <v>563</v>
       </c>
-      <c r="E437" s="1" t="s">
+      <c r="E437" t="s">
         <v>297</v>
       </c>
     </row>
@@ -9739,7 +9733,7 @@
       <c r="D438" t="s">
         <v>563</v>
       </c>
-      <c r="E438" s="1" t="s">
+      <c r="E438" t="s">
         <v>298</v>
       </c>
     </row>
@@ -9756,7 +9750,7 @@
       <c r="D439" t="s">
         <v>563</v>
       </c>
-      <c r="E439" s="1" t="s">
+      <c r="E439" t="s">
         <v>299</v>
       </c>
     </row>
@@ -9773,7 +9767,7 @@
       <c r="D440" t="s">
         <v>563</v>
       </c>
-      <c r="E440" s="1" t="s">
+      <c r="E440" t="s">
         <v>300</v>
       </c>
     </row>
@@ -9790,7 +9784,7 @@
       <c r="D441" t="s">
         <v>563</v>
       </c>
-      <c r="E441" s="1" t="s">
+      <c r="E441" t="s">
         <v>568</v>
       </c>
     </row>
@@ -9807,7 +9801,7 @@
       <c r="D442" t="s">
         <v>563</v>
       </c>
-      <c r="E442" s="1" t="s">
+      <c r="E442" t="s">
         <v>302</v>
       </c>
     </row>
@@ -9824,7 +9818,7 @@
       <c r="D443" t="s">
         <v>563</v>
       </c>
-      <c r="E443" s="1" t="s">
+      <c r="E443" t="s">
         <v>303</v>
       </c>
     </row>
@@ -9841,7 +9835,7 @@
       <c r="D444" t="s">
         <v>563</v>
       </c>
-      <c r="E444" s="1" t="s">
+      <c r="E444" t="s">
         <v>303</v>
       </c>
     </row>
@@ -9858,7 +9852,7 @@
       <c r="D445" t="s">
         <v>563</v>
       </c>
-      <c r="E445" s="1" t="s">
+      <c r="E445" t="s">
         <v>304</v>
       </c>
     </row>
@@ -9875,7 +9869,7 @@
       <c r="D446" t="s">
         <v>563</v>
       </c>
-      <c r="E446" s="1" t="s">
+      <c r="E446" t="s">
         <v>305</v>
       </c>
     </row>
@@ -9892,7 +9886,7 @@
       <c r="D447" t="s">
         <v>563</v>
       </c>
-      <c r="E447" s="1" t="s">
+      <c r="E447" t="s">
         <v>307</v>
       </c>
     </row>
@@ -9909,7 +9903,7 @@
       <c r="D448" t="s">
         <v>563</v>
       </c>
-      <c r="E448" s="1" t="s">
+      <c r="E448" t="s">
         <v>308</v>
       </c>
     </row>
@@ -9926,7 +9920,7 @@
       <c r="D449" t="s">
         <v>563</v>
       </c>
-      <c r="E449" s="1" t="s">
+      <c r="E449" t="s">
         <v>310</v>
       </c>
     </row>
@@ -9943,7 +9937,7 @@
       <c r="D450" t="s">
         <v>563</v>
       </c>
-      <c r="E450" s="1" t="s">
+      <c r="E450" t="s">
         <v>312</v>
       </c>
     </row>
@@ -9960,7 +9954,7 @@
       <c r="D451" t="s">
         <v>563</v>
       </c>
-      <c r="E451" s="1" t="s">
+      <c r="E451" t="s">
         <v>313</v>
       </c>
     </row>
@@ -9977,7 +9971,7 @@
       <c r="D452" t="s">
         <v>563</v>
       </c>
-      <c r="E452" s="1" t="s">
+      <c r="E452" t="s">
         <v>314</v>
       </c>
     </row>
@@ -9994,7 +9988,7 @@
       <c r="D453" t="s">
         <v>563</v>
       </c>
-      <c r="E453" s="1" t="s">
+      <c r="E453" t="s">
         <v>315</v>
       </c>
     </row>
@@ -10011,7 +10005,7 @@
       <c r="D454" t="s">
         <v>563</v>
       </c>
-      <c r="E454" s="1" t="s">
+      <c r="E454" t="s">
         <v>316</v>
       </c>
     </row>
@@ -10028,7 +10022,7 @@
       <c r="D455" t="s">
         <v>563</v>
       </c>
-      <c r="E455" s="1" t="s">
+      <c r="E455" t="s">
         <v>317</v>
       </c>
     </row>
@@ -10045,7 +10039,7 @@
       <c r="D456" t="s">
         <v>563</v>
       </c>
-      <c r="E456" s="1" t="s">
+      <c r="E456" t="s">
         <v>318</v>
       </c>
     </row>
@@ -10062,7 +10056,7 @@
       <c r="D457" t="s">
         <v>563</v>
       </c>
-      <c r="E457" s="1" t="s">
+      <c r="E457" t="s">
         <v>319</v>
       </c>
     </row>
@@ -10079,7 +10073,7 @@
       <c r="D458" t="s">
         <v>563</v>
       </c>
-      <c r="E458" s="1" t="s">
+      <c r="E458" t="s">
         <v>320</v>
       </c>
     </row>
@@ -10096,7 +10090,7 @@
       <c r="D459" t="s">
         <v>563</v>
       </c>
-      <c r="E459" s="1" t="s">
+      <c r="E459" t="s">
         <v>321</v>
       </c>
     </row>
@@ -10113,7 +10107,7 @@
       <c r="D460" t="s">
         <v>563</v>
       </c>
-      <c r="E460" s="1" t="s">
+      <c r="E460" t="s">
         <v>323</v>
       </c>
     </row>
@@ -10130,7 +10124,7 @@
       <c r="D461" t="s">
         <v>563</v>
       </c>
-      <c r="E461" s="1" t="s">
+      <c r="E461" t="s">
         <v>324</v>
       </c>
     </row>
@@ -10147,7 +10141,7 @@
       <c r="D462" t="s">
         <v>563</v>
       </c>
-      <c r="E462" s="1" t="s">
+      <c r="E462" t="s">
         <v>325</v>
       </c>
     </row>
@@ -10164,7 +10158,7 @@
       <c r="D463" t="s">
         <v>563</v>
       </c>
-      <c r="E463" s="1" t="s">
+      <c r="E463" t="s">
         <v>327</v>
       </c>
     </row>
@@ -10181,7 +10175,7 @@
       <c r="D464" t="s">
         <v>563</v>
       </c>
-      <c r="E464" s="1" t="s">
+      <c r="E464" t="s">
         <v>328</v>
       </c>
     </row>
@@ -10198,7 +10192,7 @@
       <c r="D465" t="s">
         <v>576</v>
       </c>
-      <c r="E465" s="1" t="s">
+      <c r="E465" t="s">
         <v>577</v>
       </c>
     </row>
@@ -10215,7 +10209,7 @@
       <c r="D466" t="s">
         <v>576</v>
       </c>
-      <c r="E466" s="1" t="s">
+      <c r="E466" t="s">
         <v>578</v>
       </c>
     </row>
@@ -10232,7 +10226,7 @@
       <c r="D467" t="s">
         <v>576</v>
       </c>
-      <c r="E467" s="1" t="s">
+      <c r="E467" t="s">
         <v>579</v>
       </c>
     </row>
@@ -10249,7 +10243,7 @@
       <c r="D468" t="s">
         <v>576</v>
       </c>
-      <c r="E468" s="1" t="s">
+      <c r="E468" t="s">
         <v>580</v>
       </c>
     </row>
@@ -10266,7 +10260,7 @@
       <c r="D469" t="s">
         <v>576</v>
       </c>
-      <c r="E469" s="1" t="s">
+      <c r="E469" t="s">
         <v>581</v>
       </c>
     </row>
@@ -10283,7 +10277,7 @@
       <c r="D470" t="s">
         <v>576</v>
       </c>
-      <c r="E470" s="1" t="s">
+      <c r="E470" t="s">
         <v>582</v>
       </c>
     </row>
@@ -10300,7 +10294,7 @@
       <c r="D471" t="s">
         <v>576</v>
       </c>
-      <c r="E471" s="1" t="s">
+      <c r="E471" t="s">
         <v>583</v>
       </c>
     </row>
@@ -10317,7 +10311,7 @@
       <c r="D472" t="s">
         <v>576</v>
       </c>
-      <c r="E472" s="1" t="s">
+      <c r="E472" t="s">
         <v>584</v>
       </c>
     </row>
@@ -10334,7 +10328,7 @@
       <c r="D473" t="s">
         <v>576</v>
       </c>
-      <c r="E473" s="1" t="s">
+      <c r="E473" t="s">
         <v>585</v>
       </c>
     </row>
@@ -10351,7 +10345,7 @@
       <c r="D474" t="s">
         <v>576</v>
       </c>
-      <c r="E474" s="1" t="s">
+      <c r="E474" t="s">
         <v>586</v>
       </c>
     </row>
@@ -10368,7 +10362,7 @@
       <c r="D475" t="s">
         <v>576</v>
       </c>
-      <c r="E475" s="1" t="s">
+      <c r="E475" t="s">
         <v>587</v>
       </c>
     </row>
@@ -10385,7 +10379,7 @@
       <c r="D476" t="s">
         <v>576</v>
       </c>
-      <c r="E476" s="1" t="s">
+      <c r="E476" t="s">
         <v>588</v>
       </c>
     </row>
@@ -10402,7 +10396,7 @@
       <c r="D477" t="s">
         <v>576</v>
       </c>
-      <c r="E477" s="1" t="s">
+      <c r="E477" t="s">
         <v>589</v>
       </c>
     </row>
@@ -10419,7 +10413,7 @@
       <c r="D478" t="s">
         <v>576</v>
       </c>
-      <c r="E478" s="1" t="s">
+      <c r="E478" t="s">
         <v>590</v>
       </c>
     </row>
@@ -10436,7 +10430,7 @@
       <c r="D479" t="s">
         <v>576</v>
       </c>
-      <c r="E479" s="1" t="s">
+      <c r="E479" t="s">
         <v>591</v>
       </c>
     </row>
@@ -10467,7 +10461,7 @@
       <c r="D481" t="s">
         <v>576</v>
       </c>
-      <c r="E481" s="1" t="s">
+      <c r="E481" t="s">
         <v>592</v>
       </c>
     </row>
@@ -10484,7 +10478,7 @@
       <c r="D482" t="s">
         <v>576</v>
       </c>
-      <c r="E482" s="1" t="s">
+      <c r="E482" t="s">
         <v>593</v>
       </c>
     </row>
@@ -10501,7 +10495,7 @@
       <c r="D483" t="s">
         <v>576</v>
       </c>
-      <c r="E483" s="1" t="s">
+      <c r="E483" t="s">
         <v>594</v>
       </c>
     </row>
@@ -10518,7 +10512,7 @@
       <c r="D484" t="s">
         <v>576</v>
       </c>
-      <c r="E484" s="1" t="s">
+      <c r="E484" t="s">
         <v>595</v>
       </c>
     </row>
@@ -10535,7 +10529,7 @@
       <c r="D485" t="s">
         <v>576</v>
       </c>
-      <c r="E485" s="1" t="s">
+      <c r="E485" t="s">
         <v>596</v>
       </c>
     </row>
@@ -10552,7 +10546,7 @@
       <c r="D486" t="s">
         <v>576</v>
       </c>
-      <c r="E486" s="1" t="s">
+      <c r="E486" t="s">
         <v>597</v>
       </c>
     </row>
@@ -10569,7 +10563,7 @@
       <c r="D487" t="s">
         <v>576</v>
       </c>
-      <c r="E487" s="1" t="s">
+      <c r="E487" t="s">
         <v>598</v>
       </c>
     </row>
@@ -10586,7 +10580,7 @@
       <c r="D488" t="s">
         <v>576</v>
       </c>
-      <c r="E488" s="1" t="s">
+      <c r="E488" t="s">
         <v>599</v>
       </c>
     </row>
@@ -10603,7 +10597,7 @@
       <c r="D489" t="s">
         <v>576</v>
       </c>
-      <c r="E489" s="1" t="s">
+      <c r="E489" t="s">
         <v>600</v>
       </c>
     </row>
@@ -10620,7 +10614,7 @@
       <c r="D490" t="s">
         <v>576</v>
       </c>
-      <c r="E490" s="1" t="s">
+      <c r="E490" t="s">
         <v>601</v>
       </c>
     </row>
@@ -10637,7 +10631,7 @@
       <c r="D491" t="s">
         <v>576</v>
       </c>
-      <c r="E491" s="1" t="s">
+      <c r="E491" t="s">
         <v>602</v>
       </c>
     </row>
@@ -10654,7 +10648,7 @@
       <c r="D492" t="s">
         <v>576</v>
       </c>
-      <c r="E492" s="1" t="s">
+      <c r="E492" t="s">
         <v>603</v>
       </c>
     </row>
@@ -10671,7 +10665,7 @@
       <c r="D493" t="s">
         <v>576</v>
       </c>
-      <c r="E493" s="1" t="s">
+      <c r="E493" t="s">
         <v>604</v>
       </c>
     </row>
@@ -10688,7 +10682,7 @@
       <c r="D494" t="s">
         <v>576</v>
       </c>
-      <c r="E494" s="1" t="s">
+      <c r="E494" t="s">
         <v>594</v>
       </c>
     </row>
@@ -10705,7 +10699,7 @@
       <c r="D495" t="s">
         <v>576</v>
       </c>
-      <c r="E495" s="1" t="s">
+      <c r="E495" t="s">
         <v>605</v>
       </c>
     </row>
@@ -10722,7 +10716,7 @@
       <c r="D496" t="s">
         <v>576</v>
       </c>
-      <c r="E496" s="1" t="s">
+      <c r="E496" t="s">
         <v>606</v>
       </c>
     </row>
@@ -11579,7 +11573,7 @@
       <c r="D557" t="s">
         <v>610</v>
       </c>
-      <c r="E557" s="1">
+      <c r="E557">
         <v>41102</v>
       </c>
     </row>
@@ -11596,7 +11590,7 @@
       <c r="D558" t="s">
         <v>610</v>
       </c>
-      <c r="E558" s="1">
+      <c r="E558">
         <v>41450</v>
       </c>
     </row>
@@ -11613,7 +11607,7 @@
       <c r="D559" t="s">
         <v>610</v>
       </c>
-      <c r="E559" s="1">
+      <c r="E559">
         <v>41496</v>
       </c>
     </row>
@@ -11630,7 +11624,7 @@
       <c r="D560" t="s">
         <v>610</v>
       </c>
-      <c r="E560" s="1">
+      <c r="E560">
         <v>41721</v>
       </c>
     </row>
@@ -11647,7 +11641,7 @@
       <c r="D561" t="s">
         <v>610</v>
       </c>
-      <c r="E561" s="1">
+      <c r="E561">
         <v>41803</v>
       </c>
     </row>
@@ -11664,7 +11658,7 @@
       <c r="D562" t="s">
         <v>610</v>
       </c>
-      <c r="E562" s="1">
+      <c r="E562">
         <v>41948</v>
       </c>
     </row>
@@ -11681,7 +11675,7 @@
       <c r="D563" t="s">
         <v>610</v>
       </c>
-      <c r="E563" s="1">
+      <c r="E563">
         <v>42556</v>
       </c>
     </row>
@@ -11698,7 +11692,7 @@
       <c r="D564" t="s">
         <v>610</v>
       </c>
-      <c r="E564" s="1">
+      <c r="E564">
         <v>42606</v>
       </c>
     </row>
@@ -11715,7 +11709,7 @@
       <c r="D565" t="s">
         <v>610</v>
       </c>
-      <c r="E565" s="1">
+      <c r="E565">
         <v>42705</v>
       </c>
     </row>
@@ -11732,7 +11726,7 @@
       <c r="D566" t="s">
         <v>610</v>
       </c>
-      <c r="E566" s="1">
+      <c r="E566">
         <v>42755</v>
       </c>
     </row>
@@ -11749,7 +11743,7 @@
       <c r="D567" t="s">
         <v>610</v>
       </c>
-      <c r="E567" s="1">
+      <c r="E567">
         <v>42763</v>
       </c>
     </row>
@@ -11766,7 +11760,7 @@
       <c r="D568" t="s">
         <v>610</v>
       </c>
-      <c r="E568" s="1">
+      <c r="E568">
         <v>42808</v>
       </c>
     </row>
@@ -11783,7 +11777,7 @@
       <c r="D569" t="s">
         <v>610</v>
       </c>
-      <c r="E569" s="1">
+      <c r="E569">
         <v>42815</v>
       </c>
     </row>
@@ -11800,7 +11794,7 @@
       <c r="D570" t="s">
         <v>610</v>
       </c>
-      <c r="E570" s="1">
+      <c r="E570">
         <v>42828</v>
       </c>
     </row>
@@ -11817,7 +11811,7 @@
       <c r="D571" t="s">
         <v>610</v>
       </c>
-      <c r="E571" s="1">
+      <c r="E571">
         <v>42845</v>
       </c>
     </row>
@@ -11834,7 +11828,7 @@
       <c r="D572" t="s">
         <v>610</v>
       </c>
-      <c r="E572" s="1">
+      <c r="E572">
         <v>42845</v>
       </c>
     </row>
@@ -11851,7 +11845,7 @@
       <c r="D573" t="s">
         <v>610</v>
       </c>
-      <c r="E573" s="1">
+      <c r="E573">
         <v>42871</v>
       </c>
     </row>
@@ -11868,7 +11862,7 @@
       <c r="D574" t="s">
         <v>610</v>
       </c>
-      <c r="E574" s="1">
+      <c r="E574">
         <v>42906</v>
       </c>
     </row>
@@ -11885,7 +11879,7 @@
       <c r="D575" t="s">
         <v>610</v>
       </c>
-      <c r="E575" s="1">
+      <c r="E575">
         <v>42919</v>
       </c>
     </row>
@@ -11902,7 +11896,7 @@
       <c r="D576" t="s">
         <v>610</v>
       </c>
-      <c r="E576" s="1">
+      <c r="E576">
         <v>42935</v>
       </c>
     </row>
@@ -11919,7 +11913,7 @@
       <c r="D577" t="s">
         <v>610</v>
       </c>
-      <c r="E577" s="1">
+      <c r="E577">
         <v>42935</v>
       </c>
     </row>
@@ -11936,7 +11930,7 @@
       <c r="D578" t="s">
         <v>610</v>
       </c>
-      <c r="E578" s="1">
+      <c r="E578">
         <v>42944</v>
       </c>
     </row>
@@ -11953,7 +11947,7 @@
       <c r="D579" t="s">
         <v>610</v>
       </c>
-      <c r="E579" s="1">
+      <c r="E579">
         <v>42944</v>
       </c>
     </row>
@@ -11970,7 +11964,7 @@
       <c r="D580" t="s">
         <v>610</v>
       </c>
-      <c r="E580" s="1">
+      <c r="E580">
         <v>42947</v>
       </c>
     </row>
@@ -11987,7 +11981,7 @@
       <c r="D581" t="s">
         <v>610</v>
       </c>
-      <c r="E581" s="1">
+      <c r="E581">
         <v>42955</v>
       </c>
     </row>
@@ -12004,7 +11998,7 @@
       <c r="D582" t="s">
         <v>610</v>
       </c>
-      <c r="E582" s="1">
+      <c r="E582">
         <v>43002</v>
       </c>
     </row>
@@ -12021,7 +12015,7 @@
       <c r="D583" t="s">
         <v>610</v>
       </c>
-      <c r="E583" s="1">
+      <c r="E583">
         <v>43003</v>
       </c>
     </row>
@@ -12038,7 +12032,7 @@
       <c r="D584" t="s">
         <v>610</v>
       </c>
-      <c r="E584" s="1">
+      <c r="E584">
         <v>43009</v>
       </c>
     </row>
@@ -12055,7 +12049,7 @@
       <c r="D585" t="s">
         <v>610</v>
       </c>
-      <c r="E585" s="1">
+      <c r="E585">
         <v>43022</v>
       </c>
     </row>
@@ -12072,7 +12066,7 @@
       <c r="D586" t="s">
         <v>610</v>
       </c>
-      <c r="E586" s="1">
+      <c r="E586">
         <v>43033</v>
       </c>
     </row>
@@ -12089,7 +12083,7 @@
       <c r="D587" t="s">
         <v>610</v>
       </c>
-      <c r="E587" s="1">
+      <c r="E587">
         <v>43033</v>
       </c>
     </row>
@@ -12106,7 +12100,7 @@
       <c r="D588" t="s">
         <v>610</v>
       </c>
-      <c r="E588" s="1">
+      <c r="E588">
         <v>43042</v>
       </c>
     </row>
@@ -12123,7 +12117,7 @@
       <c r="D589" t="s">
         <v>610</v>
       </c>
-      <c r="E589" s="1">
+      <c r="E589">
         <v>43049</v>
       </c>
     </row>
@@ -12140,7 +12134,7 @@
       <c r="D590" t="s">
         <v>610</v>
       </c>
-      <c r="E590" s="1">
+      <c r="E590">
         <v>43059</v>
       </c>
     </row>
@@ -12157,7 +12151,7 @@
       <c r="D591" t="s">
         <v>610</v>
       </c>
-      <c r="E591" s="1">
+      <c r="E591">
         <v>43059</v>
       </c>
     </row>
@@ -12174,7 +12168,7 @@
       <c r="D592" t="s">
         <v>610</v>
       </c>
-      <c r="E592" s="1">
+      <c r="E592">
         <v>43061</v>
       </c>
     </row>
@@ -12191,7 +12185,7 @@
       <c r="D593" t="s">
         <v>610</v>
       </c>
-      <c r="E593" s="1">
+      <c r="E593">
         <v>43065</v>
       </c>
     </row>
@@ -12208,7 +12202,7 @@
       <c r="D594" t="s">
         <v>610</v>
       </c>
-      <c r="E594" s="1">
+      <c r="E594">
         <v>43065</v>
       </c>
     </row>
@@ -12225,7 +12219,7 @@
       <c r="D595" t="s">
         <v>610</v>
       </c>
-      <c r="E595" s="1">
+      <c r="E595">
         <v>43066</v>
       </c>
     </row>
@@ -12242,7 +12236,7 @@
       <c r="D596" t="s">
         <v>610</v>
       </c>
-      <c r="E596" s="1">
+      <c r="E596">
         <v>43088</v>
       </c>
     </row>
@@ -12259,7 +12253,7 @@
       <c r="D597" t="s">
         <v>610</v>
       </c>
-      <c r="E597" s="1">
+      <c r="E597">
         <v>43090</v>
       </c>
     </row>
@@ -12276,7 +12270,7 @@
       <c r="D598" t="s">
         <v>610</v>
       </c>
-      <c r="E598" s="1">
+      <c r="E598">
         <v>43096</v>
       </c>
     </row>
@@ -12293,7 +12287,7 @@
       <c r="D599" t="s">
         <v>610</v>
       </c>
-      <c r="E599" s="1">
+      <c r="E599">
         <v>43096</v>
       </c>
     </row>
@@ -12310,7 +12304,7 @@
       <c r="D600" t="s">
         <v>610</v>
       </c>
-      <c r="E600" s="1">
+      <c r="E600">
         <v>43099</v>
       </c>
     </row>
@@ -12327,7 +12321,7 @@
       <c r="D601" t="s">
         <v>610</v>
       </c>
-      <c r="E601" s="1">
+      <c r="E601">
         <v>42451</v>
       </c>
     </row>
@@ -12344,7 +12338,7 @@
       <c r="D602" t="s">
         <v>610</v>
       </c>
-      <c r="E602" s="1">
+      <c r="E602">
         <v>42774</v>
       </c>
     </row>
@@ -12361,7 +12355,7 @@
       <c r="D603" t="s">
         <v>610</v>
       </c>
-      <c r="E603" s="1">
+      <c r="E603">
         <v>42786</v>
       </c>
     </row>
@@ -12378,7 +12372,7 @@
       <c r="D604" t="s">
         <v>610</v>
       </c>
-      <c r="E604" s="1">
+      <c r="E604">
         <v>42947</v>
       </c>
     </row>
@@ -12395,7 +12389,7 @@
       <c r="D605" t="s">
         <v>610</v>
       </c>
-      <c r="E605" s="1">
+      <c r="E605">
         <v>42983</v>
       </c>
     </row>
@@ -12412,7 +12406,7 @@
       <c r="D606" t="s">
         <v>610</v>
       </c>
-      <c r="E606" s="1">
+      <c r="E606">
         <v>42995</v>
       </c>
     </row>
@@ -12429,7 +12423,7 @@
       <c r="D607" t="s">
         <v>610</v>
       </c>
-      <c r="E607" s="1">
+      <c r="E607">
         <v>43001</v>
       </c>
     </row>
@@ -12446,7 +12440,7 @@
       <c r="D608" t="s">
         <v>610</v>
       </c>
-      <c r="E608" s="1">
+      <c r="E608">
         <v>43022</v>
       </c>
     </row>
@@ -12463,7 +12457,7 @@
       <c r="D609" t="s">
         <v>610</v>
       </c>
-      <c r="E609" s="1">
+      <c r="E609">
         <v>43036</v>
       </c>
     </row>
@@ -12480,7 +12474,7 @@
       <c r="D610" t="s">
         <v>610</v>
       </c>
-      <c r="E610" s="1">
+      <c r="E610">
         <v>43040</v>
       </c>
     </row>
@@ -12497,7 +12491,7 @@
       <c r="D611" t="s">
         <v>610</v>
       </c>
-      <c r="E611" s="1">
+      <c r="E611">
         <v>43050</v>
       </c>
     </row>
@@ -12514,7 +12508,7 @@
       <c r="D612" t="s">
         <v>610</v>
       </c>
-      <c r="E612" s="1">
+      <c r="E612">
         <v>43053</v>
       </c>
     </row>
@@ -12531,7 +12525,7 @@
       <c r="D613" t="s">
         <v>610</v>
       </c>
-      <c r="E613" s="1">
+      <c r="E613">
         <v>43065</v>
       </c>
     </row>
@@ -12548,7 +12542,7 @@
       <c r="D614" t="s">
         <v>610</v>
       </c>
-      <c r="E614" s="1">
+      <c r="E614">
         <v>43067</v>
       </c>
     </row>
@@ -12565,7 +12559,7 @@
       <c r="D615" t="s">
         <v>610</v>
       </c>
-      <c r="E615" s="1">
+      <c r="E615">
         <v>43080</v>
       </c>
     </row>
@@ -12582,7 +12576,7 @@
       <c r="D616" t="s">
         <v>610</v>
       </c>
-      <c r="E616" s="1">
+      <c r="E616">
         <v>43087</v>
       </c>
     </row>
@@ -12599,7 +12593,7 @@
       <c r="D617" t="s">
         <v>610</v>
       </c>
-      <c r="E617" s="1">
+      <c r="E617">
         <v>43095</v>
       </c>
     </row>
@@ -12616,7 +12610,7 @@
       <c r="D618" t="s">
         <v>610</v>
       </c>
-      <c r="E618" s="1">
+      <c r="E618">
         <v>43098</v>
       </c>
     </row>
@@ -12633,7 +12627,7 @@
       <c r="D619" t="s">
         <v>610</v>
       </c>
-      <c r="E619" s="1">
+      <c r="E619">
         <v>43100</v>
       </c>
     </row>
@@ -12650,7 +12644,7 @@
       <c r="D620" t="s">
         <v>610</v>
       </c>
-      <c r="E620" s="1">
+      <c r="E620">
         <v>42454</v>
       </c>
     </row>
@@ -12667,7 +12661,7 @@
       <c r="D621" t="s">
         <v>610</v>
       </c>
-      <c r="E621" s="1">
+      <c r="E621">
         <v>42504</v>
       </c>
     </row>
@@ -12684,7 +12678,7 @@
       <c r="D622" t="s">
         <v>610</v>
       </c>
-      <c r="E622" s="1">
+      <c r="E622">
         <v>42558</v>
       </c>
     </row>
@@ -12701,7 +12695,7 @@
       <c r="D623" t="s">
         <v>610</v>
       </c>
-      <c r="E623" s="1">
+      <c r="E623">
         <v>42604</v>
       </c>
     </row>
@@ -12718,7 +12712,7 @@
       <c r="D624" t="s">
         <v>610</v>
       </c>
-      <c r="E624" s="1">
+      <c r="E624">
         <v>42618</v>
       </c>
     </row>
@@ -12735,7 +12729,7 @@
       <c r="D625" t="s">
         <v>610</v>
       </c>
-      <c r="E625" s="1">
+      <c r="E625">
         <v>42709</v>
       </c>
     </row>
@@ -12752,7 +12746,7 @@
       <c r="D626" t="s">
         <v>610</v>
       </c>
-      <c r="E626" s="1">
+      <c r="E626">
         <v>42740</v>
       </c>
     </row>
@@ -12769,7 +12763,7 @@
       <c r="D627" t="s">
         <v>610</v>
       </c>
-      <c r="E627" s="1">
+      <c r="E627">
         <v>42751</v>
       </c>
     </row>
@@ -12786,7 +12780,7 @@
       <c r="D628" t="s">
         <v>610</v>
       </c>
-      <c r="E628" s="1">
+      <c r="E628">
         <v>42801</v>
       </c>
     </row>
@@ -12803,7 +12797,7 @@
       <c r="D629" t="s">
         <v>610</v>
       </c>
-      <c r="E629" s="1">
+      <c r="E629">
         <v>42834</v>
       </c>
     </row>
@@ -12820,7 +12814,7 @@
       <c r="D630" t="s">
         <v>610</v>
       </c>
-      <c r="E630" s="1">
+      <c r="E630">
         <v>42872</v>
       </c>
     </row>
@@ -12837,7 +12831,7 @@
       <c r="D631" t="s">
         <v>610</v>
       </c>
-      <c r="E631" s="1">
+      <c r="E631">
         <v>42886</v>
       </c>
     </row>
@@ -12854,7 +12848,7 @@
       <c r="D632" t="s">
         <v>610</v>
       </c>
-      <c r="E632" s="1">
+      <c r="E632">
         <v>42888</v>
       </c>
     </row>
@@ -12871,7 +12865,7 @@
       <c r="D633" t="s">
         <v>610</v>
       </c>
-      <c r="E633" s="1">
+      <c r="E633">
         <v>42915</v>
       </c>
     </row>
@@ -12888,7 +12882,7 @@
       <c r="D634" t="s">
         <v>610</v>
       </c>
-      <c r="E634" s="1">
+      <c r="E634">
         <v>42924</v>
       </c>
     </row>
@@ -12905,7 +12899,7 @@
       <c r="D635" t="s">
         <v>610</v>
       </c>
-      <c r="E635" s="1">
+      <c r="E635">
         <v>42927</v>
       </c>
     </row>
@@ -12922,7 +12916,7 @@
       <c r="D636" t="s">
         <v>610</v>
       </c>
-      <c r="E636" s="1">
+      <c r="E636">
         <v>42931</v>
       </c>
     </row>
@@ -12939,7 +12933,7 @@
       <c r="D637" t="s">
         <v>610</v>
       </c>
-      <c r="E637" s="1">
+      <c r="E637">
         <v>42934</v>
       </c>
     </row>
@@ -12956,7 +12950,7 @@
       <c r="D638" t="s">
         <v>610</v>
       </c>
-      <c r="E638" s="1">
+      <c r="E638">
         <v>42944</v>
       </c>
     </row>
@@ -12973,7 +12967,7 @@
       <c r="D639" t="s">
         <v>610</v>
       </c>
-      <c r="E639" s="1">
+      <c r="E639">
         <v>42956</v>
       </c>
     </row>
@@ -12990,7 +12984,7 @@
       <c r="D640" t="s">
         <v>610</v>
       </c>
-      <c r="E640" s="1">
+      <c r="E640">
         <v>42959</v>
       </c>
     </row>
@@ -13007,7 +13001,7 @@
       <c r="D641" t="s">
         <v>610</v>
       </c>
-      <c r="E641" s="1">
+      <c r="E641">
         <v>42959</v>
       </c>
     </row>
@@ -13024,7 +13018,7 @@
       <c r="D642" t="s">
         <v>610</v>
       </c>
-      <c r="E642" s="1">
+      <c r="E642">
         <v>42986</v>
       </c>
     </row>
@@ -13041,7 +13035,7 @@
       <c r="D643" t="s">
         <v>610</v>
       </c>
-      <c r="E643" s="1">
+      <c r="E643">
         <v>42990</v>
       </c>
     </row>
@@ -13058,7 +13052,7 @@
       <c r="D644" t="s">
         <v>610</v>
       </c>
-      <c r="E644" s="1">
+      <c r="E644">
         <v>43002</v>
       </c>
     </row>
@@ -13075,7 +13069,7 @@
       <c r="D645" t="s">
         <v>610</v>
       </c>
-      <c r="E645" s="1">
+      <c r="E645">
         <v>43006</v>
       </c>
     </row>
@@ -13092,7 +13086,7 @@
       <c r="D646" t="s">
         <v>610</v>
       </c>
-      <c r="E646" s="1">
+      <c r="E646">
         <v>43008</v>
       </c>
     </row>
@@ -13109,7 +13103,7 @@
       <c r="D647" t="s">
         <v>610</v>
       </c>
-      <c r="E647" s="1">
+      <c r="E647">
         <v>43008</v>
       </c>
     </row>
@@ -13126,7 +13120,7 @@
       <c r="D648" t="s">
         <v>610</v>
       </c>
-      <c r="E648" s="1">
+      <c r="E648">
         <v>43014</v>
       </c>
     </row>
@@ -13143,7 +13137,7 @@
       <c r="D649" t="s">
         <v>610</v>
       </c>
-      <c r="E649" s="1">
+      <c r="E649">
         <v>43016</v>
       </c>
     </row>
@@ -13160,7 +13154,7 @@
       <c r="D650" t="s">
         <v>610</v>
       </c>
-      <c r="E650" s="1">
+      <c r="E650">
         <v>43020</v>
       </c>
     </row>
@@ -13177,7 +13171,7 @@
       <c r="D651" t="s">
         <v>610</v>
       </c>
-      <c r="E651" s="1">
+      <c r="E651">
         <v>43024</v>
       </c>
     </row>
@@ -13194,7 +13188,7 @@
       <c r="D652" t="s">
         <v>610</v>
       </c>
-      <c r="E652" s="1">
+      <c r="E652">
         <v>43028</v>
       </c>
     </row>
@@ -13211,7 +13205,7 @@
       <c r="D653" t="s">
         <v>610</v>
       </c>
-      <c r="E653" s="1">
+      <c r="E653">
         <v>43036</v>
       </c>
     </row>
@@ -13228,7 +13222,7 @@
       <c r="D654" t="s">
         <v>610</v>
       </c>
-      <c r="E654" s="1">
+      <c r="E654">
         <v>43037</v>
       </c>
     </row>
@@ -13245,7 +13239,7 @@
       <c r="D655" t="s">
         <v>610</v>
       </c>
-      <c r="E655" s="1">
+      <c r="E655">
         <v>43038</v>
       </c>
     </row>
@@ -13262,7 +13256,7 @@
       <c r="D656" t="s">
         <v>610</v>
       </c>
-      <c r="E656" s="1">
+      <c r="E656">
         <v>43040</v>
       </c>
     </row>
@@ -13279,7 +13273,7 @@
       <c r="D657" t="s">
         <v>610</v>
       </c>
-      <c r="E657" s="1">
+      <c r="E657">
         <v>43041</v>
       </c>
     </row>
@@ -13296,7 +13290,7 @@
       <c r="D658" t="s">
         <v>610</v>
       </c>
-      <c r="E658" s="1">
+      <c r="E658">
         <v>43041</v>
       </c>
     </row>
@@ -13313,7 +13307,7 @@
       <c r="D659" t="s">
         <v>610</v>
       </c>
-      <c r="E659" s="1">
+      <c r="E659">
         <v>43044</v>
       </c>
     </row>
@@ -13330,7 +13324,7 @@
       <c r="D660" t="s">
         <v>610</v>
       </c>
-      <c r="E660" s="1">
+      <c r="E660">
         <v>43044</v>
       </c>
     </row>
@@ -13347,7 +13341,7 @@
       <c r="D661" t="s">
         <v>610</v>
       </c>
-      <c r="E661" s="1">
+      <c r="E661">
         <v>43047</v>
       </c>
     </row>
@@ -13364,7 +13358,7 @@
       <c r="D662" t="s">
         <v>610</v>
       </c>
-      <c r="E662" s="1">
+      <c r="E662">
         <v>43048</v>
       </c>
     </row>
@@ -13381,7 +13375,7 @@
       <c r="D663" t="s">
         <v>610</v>
       </c>
-      <c r="E663" s="1">
+      <c r="E663">
         <v>43048</v>
       </c>
     </row>
@@ -13398,7 +13392,7 @@
       <c r="D664" t="s">
         <v>610</v>
       </c>
-      <c r="E664" s="1">
+      <c r="E664">
         <v>43051</v>
       </c>
     </row>
@@ -13415,7 +13409,7 @@
       <c r="D665" t="s">
         <v>610</v>
       </c>
-      <c r="E665" s="1">
+      <c r="E665">
         <v>43052</v>
       </c>
     </row>
@@ -13432,7 +13426,7 @@
       <c r="D666" t="s">
         <v>610</v>
       </c>
-      <c r="E666" s="1">
+      <c r="E666">
         <v>43052</v>
       </c>
     </row>
@@ -13449,7 +13443,7 @@
       <c r="D667" t="s">
         <v>610</v>
       </c>
-      <c r="E667" s="1">
+      <c r="E667">
         <v>43054</v>
       </c>
     </row>
@@ -13466,7 +13460,7 @@
       <c r="D668" t="s">
         <v>610</v>
       </c>
-      <c r="E668" s="1">
+      <c r="E668">
         <v>43056</v>
       </c>
     </row>
@@ -13483,7 +13477,7 @@
       <c r="D669" t="s">
         <v>610</v>
       </c>
-      <c r="E669" s="1">
+      <c r="E669">
         <v>43058</v>
       </c>
     </row>
@@ -13500,7 +13494,7 @@
       <c r="D670" t="s">
         <v>610</v>
       </c>
-      <c r="E670" s="1">
+      <c r="E670">
         <v>43058</v>
       </c>
     </row>
@@ -13517,7 +13511,7 @@
       <c r="D671" t="s">
         <v>610</v>
       </c>
-      <c r="E671" s="1">
+      <c r="E671">
         <v>43060</v>
       </c>
     </row>
@@ -13534,7 +13528,7 @@
       <c r="D672" t="s">
         <v>610</v>
       </c>
-      <c r="E672" s="1">
+      <c r="E672">
         <v>43060</v>
       </c>
     </row>
@@ -13551,7 +13545,7 @@
       <c r="D673" t="s">
         <v>610</v>
       </c>
-      <c r="E673" s="1">
+      <c r="E673">
         <v>43065</v>
       </c>
     </row>
@@ -13568,7 +13562,7 @@
       <c r="D674" t="s">
         <v>610</v>
       </c>
-      <c r="E674" s="1" t="s">
+      <c r="E674" t="s">
         <v>400</v>
       </c>
     </row>
@@ -13585,7 +13579,7 @@
       <c r="D675" t="s">
         <v>610</v>
       </c>
-      <c r="E675" s="1" t="s">
+      <c r="E675" t="s">
         <v>401</v>
       </c>
     </row>
@@ -13602,7 +13596,7 @@
       <c r="D676" t="s">
         <v>610</v>
       </c>
-      <c r="E676" s="1" t="s">
+      <c r="E676" t="s">
         <v>401</v>
       </c>
     </row>
@@ -13619,7 +13613,7 @@
       <c r="D677" t="s">
         <v>610</v>
       </c>
-      <c r="E677" s="1" t="s">
+      <c r="E677" t="s">
         <v>401</v>
       </c>
     </row>
@@ -13636,7 +13630,7 @@
       <c r="D678" t="s">
         <v>610</v>
       </c>
-      <c r="E678" s="1" t="s">
+      <c r="E678" t="s">
         <v>307</v>
       </c>
     </row>
@@ -13653,7 +13647,7 @@
       <c r="D679" t="s">
         <v>610</v>
       </c>
-      <c r="E679" s="1" t="s">
+      <c r="E679" t="s">
         <v>307</v>
       </c>
     </row>
@@ -13670,7 +13664,7 @@
       <c r="D680" t="s">
         <v>610</v>
       </c>
-      <c r="E680" s="1" t="s">
+      <c r="E680" t="s">
         <v>324</v>
       </c>
     </row>
@@ -13687,7 +13681,7 @@
       <c r="D681" t="s">
         <v>610</v>
       </c>
-      <c r="E681" s="1" t="s">
+      <c r="E681" t="s">
         <v>324</v>
       </c>
     </row>
@@ -13704,7 +13698,7 @@
       <c r="D682" t="s">
         <v>610</v>
       </c>
-      <c r="E682" s="1" t="s">
+      <c r="E682" t="s">
         <v>324</v>
       </c>
     </row>
@@ -13721,7 +13715,7 @@
       <c r="D683" t="s">
         <v>610</v>
       </c>
-      <c r="E683" s="1" t="s">
+      <c r="E683" t="s">
         <v>402</v>
       </c>
     </row>
@@ -13738,7 +13732,7 @@
       <c r="D684" t="s">
         <v>610</v>
       </c>
-      <c r="E684" s="1" t="s">
+      <c r="E684" t="s">
         <v>402</v>
       </c>
     </row>
@@ -13755,7 +13749,7 @@
       <c r="D685" t="s">
         <v>610</v>
       </c>
-      <c r="E685" s="1" t="s">
+      <c r="E685" t="s">
         <v>402</v>
       </c>
     </row>
@@ -13772,7 +13766,7 @@
       <c r="D686" t="s">
         <v>610</v>
       </c>
-      <c r="E686" s="1" t="s">
+      <c r="E686" t="s">
         <v>403</v>
       </c>
     </row>
@@ -13789,7 +13783,7 @@
       <c r="D687" t="s">
         <v>610</v>
       </c>
-      <c r="E687" s="1" t="s">
+      <c r="E687" t="s">
         <v>404</v>
       </c>
     </row>
@@ -13806,7 +13800,7 @@
       <c r="D688" t="s">
         <v>610</v>
       </c>
-      <c r="E688" s="1" t="s">
+      <c r="E688" t="s">
         <v>404</v>
       </c>
     </row>
@@ -13823,7 +13817,7 @@
       <c r="D689" t="s">
         <v>610</v>
       </c>
-      <c r="E689" s="1" t="s">
+      <c r="E689" t="s">
         <v>405</v>
       </c>
     </row>
@@ -13840,7 +13834,7 @@
       <c r="D690" t="s">
         <v>610</v>
       </c>
-      <c r="E690" s="1" t="s">
+      <c r="E690" t="s">
         <v>405</v>
       </c>
     </row>
@@ -13857,7 +13851,7 @@
       <c r="D691" t="s">
         <v>610</v>
       </c>
-      <c r="E691" s="1" t="s">
+      <c r="E691" t="s">
         <v>405</v>
       </c>
     </row>
@@ -13874,7 +13868,7 @@
       <c r="D692" t="s">
         <v>610</v>
       </c>
-      <c r="E692" s="1" t="s">
+      <c r="E692" t="s">
         <v>406</v>
       </c>
     </row>
@@ -13891,7 +13885,7 @@
       <c r="D693" t="s">
         <v>610</v>
       </c>
-      <c r="E693" s="1" t="s">
+      <c r="E693" t="s">
         <v>406</v>
       </c>
     </row>
@@ -13908,7 +13902,7 @@
       <c r="D694" t="s">
         <v>610</v>
       </c>
-      <c r="E694" s="1" t="s">
+      <c r="E694" t="s">
         <v>294</v>
       </c>
     </row>
@@ -13925,7 +13919,7 @@
       <c r="D695" t="s">
         <v>610</v>
       </c>
-      <c r="E695" s="1" t="s">
+      <c r="E695" t="s">
         <v>407</v>
       </c>
     </row>
@@ -13942,7 +13936,7 @@
       <c r="D696" t="s">
         <v>610</v>
       </c>
-      <c r="E696" s="1" t="s">
+      <c r="E696" t="s">
         <v>408</v>
       </c>
     </row>
@@ -13959,7 +13953,7 @@
       <c r="D697" t="s">
         <v>610</v>
       </c>
-      <c r="E697" s="1" t="s">
+      <c r="E697" t="s">
         <v>408</v>
       </c>
     </row>
@@ -13976,7 +13970,7 @@
       <c r="D698" t="s">
         <v>610</v>
       </c>
-      <c r="E698" s="1" t="s">
+      <c r="E698" t="s">
         <v>408</v>
       </c>
     </row>
@@ -13993,7 +13987,7 @@
       <c r="D699" t="s">
         <v>610</v>
       </c>
-      <c r="E699" s="1" t="s">
+      <c r="E699" t="s">
         <v>408</v>
       </c>
     </row>
@@ -14010,7 +14004,7 @@
       <c r="D700" t="s">
         <v>610</v>
       </c>
-      <c r="E700" s="1" t="s">
+      <c r="E700" t="s">
         <v>409</v>
       </c>
     </row>
@@ -14027,7 +14021,7 @@
       <c r="D701" t="s">
         <v>610</v>
       </c>
-      <c r="E701" s="1" t="s">
+      <c r="E701" t="s">
         <v>410</v>
       </c>
     </row>
@@ -14044,7 +14038,7 @@
       <c r="D702" t="s">
         <v>610</v>
       </c>
-      <c r="E702" s="1" t="s">
+      <c r="E702" t="s">
         <v>410</v>
       </c>
     </row>
@@ -14061,7 +14055,7 @@
       <c r="D703" t="s">
         <v>610</v>
       </c>
-      <c r="E703" s="1" t="s">
+      <c r="E703" t="s">
         <v>611</v>
       </c>
     </row>
@@ -14078,7 +14072,7 @@
       <c r="D704" t="s">
         <v>610</v>
       </c>
-      <c r="E704" s="1" t="s">
+      <c r="E704" t="s">
         <v>611</v>
       </c>
     </row>
@@ -14095,7 +14089,7 @@
       <c r="D705" t="s">
         <v>610</v>
       </c>
-      <c r="E705" s="1" t="s">
+      <c r="E705" t="s">
         <v>612</v>
       </c>
     </row>
@@ -14112,7 +14106,7 @@
       <c r="D706" t="s">
         <v>610</v>
       </c>
-      <c r="E706" s="1" t="s">
+      <c r="E706" t="s">
         <v>613</v>
       </c>
     </row>
@@ -14129,7 +14123,7 @@
       <c r="D707" t="s">
         <v>610</v>
       </c>
-      <c r="E707" s="1" t="s">
+      <c r="E707" t="s">
         <v>613</v>
       </c>
     </row>
@@ -14146,7 +14140,7 @@
       <c r="D708" t="s">
         <v>610</v>
       </c>
-      <c r="E708" s="1">
+      <c r="E708">
         <v>42740</v>
       </c>
     </row>
@@ -14163,7 +14157,7 @@
       <c r="D709" t="s">
         <v>610</v>
       </c>
-      <c r="E709" s="1">
+      <c r="E709">
         <v>42902</v>
       </c>
     </row>
@@ -14180,7 +14174,7 @@
       <c r="D710" t="s">
         <v>610</v>
       </c>
-      <c r="E710" s="1">
+      <c r="E710">
         <v>42911</v>
       </c>
     </row>
@@ -14197,7 +14191,7 @@
       <c r="D711" t="s">
         <v>610</v>
       </c>
-      <c r="E711" s="1">
+      <c r="E711">
         <v>42912</v>
       </c>
     </row>
@@ -14214,7 +14208,7 @@
       <c r="D712" t="s">
         <v>610</v>
       </c>
-      <c r="E712" s="1">
+      <c r="E712">
         <v>42918</v>
       </c>
     </row>
@@ -14231,7 +14225,7 @@
       <c r="D713" t="s">
         <v>610</v>
       </c>
-      <c r="E713" s="1">
+      <c r="E713">
         <v>42979</v>
       </c>
     </row>
@@ -14248,7 +14242,7 @@
       <c r="D714" t="s">
         <v>610</v>
       </c>
-      <c r="E714" s="1">
+      <c r="E714">
         <v>42979</v>
       </c>
     </row>
@@ -14265,7 +14259,7 @@
       <c r="D715" t="s">
         <v>610</v>
       </c>
-      <c r="E715" s="1">
+      <c r="E715">
         <v>42985</v>
       </c>
     </row>
@@ -14282,7 +14276,7 @@
       <c r="D716" t="s">
         <v>610</v>
       </c>
-      <c r="E716" s="1">
+      <c r="E716">
         <v>42995</v>
       </c>
     </row>
@@ -14299,7 +14293,7 @@
       <c r="D717" t="s">
         <v>610</v>
       </c>
-      <c r="E717" s="1">
+      <c r="E717">
         <v>43000</v>
       </c>
     </row>
@@ -14316,7 +14310,7 @@
       <c r="D718" t="s">
         <v>610</v>
       </c>
-      <c r="E718" s="1">
+      <c r="E718">
         <v>43003</v>
       </c>
     </row>
@@ -14333,7 +14327,7 @@
       <c r="D719" t="s">
         <v>610</v>
       </c>
-      <c r="E719" s="1">
+      <c r="E719">
         <v>43004</v>
       </c>
     </row>
@@ -14350,7 +14344,7 @@
       <c r="D720" t="s">
         <v>610</v>
       </c>
-      <c r="E720" s="1">
+      <c r="E720">
         <v>43004</v>
       </c>
     </row>
@@ -14367,7 +14361,7 @@
       <c r="D721" t="s">
         <v>610</v>
       </c>
-      <c r="E721" s="1">
+      <c r="E721">
         <v>43007</v>
       </c>
     </row>
@@ -14384,7 +14378,7 @@
       <c r="D722" t="s">
         <v>610</v>
       </c>
-      <c r="E722" s="1">
+      <c r="E722">
         <v>43015</v>
       </c>
     </row>
@@ -14401,7 +14395,7 @@
       <c r="D723" t="s">
         <v>610</v>
       </c>
-      <c r="E723" s="1">
+      <c r="E723">
         <v>43016</v>
       </c>
     </row>
@@ -14418,7 +14412,7 @@
       <c r="D724" t="s">
         <v>610</v>
       </c>
-      <c r="E724" s="1">
+      <c r="E724">
         <v>43021</v>
       </c>
     </row>
@@ -14435,7 +14429,7 @@
       <c r="D725" t="s">
         <v>610</v>
       </c>
-      <c r="E725" s="1">
+      <c r="E725">
         <v>43023</v>
       </c>
     </row>
@@ -14452,7 +14446,7 @@
       <c r="D726" t="s">
         <v>610</v>
       </c>
-      <c r="E726" s="1">
+      <c r="E726">
         <v>43033</v>
       </c>
     </row>
@@ -14469,7 +14463,7 @@
       <c r="D727" t="s">
         <v>610</v>
       </c>
-      <c r="E727" s="1">
+      <c r="E727">
         <v>43034</v>
       </c>
     </row>
@@ -14486,7 +14480,7 @@
       <c r="D728" t="s">
         <v>610</v>
       </c>
-      <c r="E728" s="1">
+      <c r="E728">
         <v>43035</v>
       </c>
     </row>
@@ -14503,7 +14497,7 @@
       <c r="D729" t="s">
         <v>610</v>
       </c>
-      <c r="E729" s="1">
+      <c r="E729">
         <v>43036</v>
       </c>
     </row>
@@ -14520,7 +14514,7 @@
       <c r="D730" t="s">
         <v>610</v>
       </c>
-      <c r="E730" s="1">
+      <c r="E730">
         <v>43046</v>
       </c>
     </row>
@@ -14537,7 +14531,7 @@
       <c r="D731" t="s">
         <v>610</v>
       </c>
-      <c r="E731" s="1">
+      <c r="E731">
         <v>43046</v>
       </c>
     </row>
@@ -14554,7 +14548,7 @@
       <c r="D732" t="s">
         <v>610</v>
       </c>
-      <c r="E732" s="1">
+      <c r="E732">
         <v>43049</v>
       </c>
     </row>
@@ -14571,7 +14565,7 @@
       <c r="D733" t="s">
         <v>610</v>
       </c>
-      <c r="E733" s="1">
+      <c r="E733">
         <v>43050</v>
       </c>
     </row>
@@ -14588,7 +14582,7 @@
       <c r="D734" t="s">
         <v>610</v>
       </c>
-      <c r="E734" s="1">
+      <c r="E734">
         <v>43051</v>
       </c>
     </row>
@@ -14605,7 +14599,7 @@
       <c r="D735" t="s">
         <v>610</v>
       </c>
-      <c r="E735" s="1">
+      <c r="E735">
         <v>43054</v>
       </c>
     </row>
@@ -14622,7 +14616,7 @@
       <c r="D736" t="s">
         <v>610</v>
       </c>
-      <c r="E736" s="1">
+      <c r="E736">
         <v>43056</v>
       </c>
     </row>
@@ -14639,7 +14633,7 @@
       <c r="D737" t="s">
         <v>610</v>
       </c>
-      <c r="E737" s="1">
+      <c r="E737">
         <v>43057</v>
       </c>
     </row>
@@ -14656,7 +14650,7 @@
       <c r="D738" t="s">
         <v>610</v>
       </c>
-      <c r="E738" s="1">
+      <c r="E738">
         <v>43060</v>
       </c>
     </row>
@@ -14673,7 +14667,7 @@
       <c r="D739" t="s">
         <v>610</v>
       </c>
-      <c r="E739" s="1">
+      <c r="E739">
         <v>43060</v>
       </c>
     </row>
@@ -14690,7 +14684,7 @@
       <c r="D740" t="s">
         <v>610</v>
       </c>
-      <c r="E740" s="1">
+      <c r="E740">
         <v>43067</v>
       </c>
     </row>
@@ -14707,7 +14701,7 @@
       <c r="D741" t="s">
         <v>610</v>
       </c>
-      <c r="E741" s="1">
+      <c r="E741">
         <v>43070</v>
       </c>
     </row>
@@ -14724,7 +14718,7 @@
       <c r="D742" t="s">
         <v>610</v>
       </c>
-      <c r="E742" s="1">
+      <c r="E742">
         <v>43073</v>
       </c>
     </row>
@@ -14741,7 +14735,7 @@
       <c r="D743" t="s">
         <v>610</v>
       </c>
-      <c r="E743" s="1">
+      <c r="E743">
         <v>43075</v>
       </c>
     </row>
@@ -14758,7 +14752,7 @@
       <c r="D744" t="s">
         <v>610</v>
       </c>
-      <c r="E744" s="1">
+      <c r="E744">
         <v>43075</v>
       </c>
     </row>
@@ -14775,7 +14769,7 @@
       <c r="D745" t="s">
         <v>610</v>
       </c>
-      <c r="E745" s="1">
+      <c r="E745">
         <v>43075</v>
       </c>
     </row>
@@ -14792,7 +14786,7 @@
       <c r="D746" t="s">
         <v>610</v>
       </c>
-      <c r="E746" s="1">
+      <c r="E746">
         <v>43078</v>
       </c>
     </row>
@@ -14809,7 +14803,7 @@
       <c r="D747" t="s">
         <v>610</v>
       </c>
-      <c r="E747" s="1">
+      <c r="E747">
         <v>43079</v>
       </c>
     </row>
@@ -14826,7 +14820,7 @@
       <c r="D748" t="s">
         <v>610</v>
       </c>
-      <c r="E748" s="1">
+      <c r="E748">
         <v>43079</v>
       </c>
     </row>
@@ -14843,7 +14837,7 @@
       <c r="D749" t="s">
         <v>610</v>
       </c>
-      <c r="E749" s="1">
+      <c r="E749">
         <v>43081</v>
       </c>
     </row>
@@ -14860,7 +14854,7 @@
       <c r="D750" t="s">
         <v>610</v>
       </c>
-      <c r="E750" s="1">
+      <c r="E750">
         <v>43081</v>
       </c>
     </row>
@@ -14877,7 +14871,7 @@
       <c r="D751" t="s">
         <v>610</v>
       </c>
-      <c r="E751" s="1">
+      <c r="E751">
         <v>43085</v>
       </c>
     </row>
@@ -14894,7 +14888,7 @@
       <c r="D752" t="s">
         <v>610</v>
       </c>
-      <c r="E752" s="1">
+      <c r="E752">
         <v>43085</v>
       </c>
     </row>
@@ -14911,7 +14905,7 @@
       <c r="D753" t="s">
         <v>610</v>
       </c>
-      <c r="E753" s="1">
+      <c r="E753">
         <v>43086</v>
       </c>
     </row>
@@ -14928,7 +14922,7 @@
       <c r="D754" t="s">
         <v>610</v>
       </c>
-      <c r="E754" s="1">
+      <c r="E754">
         <v>43087</v>
       </c>
     </row>
@@ -14945,7 +14939,7 @@
       <c r="D755" t="s">
         <v>610</v>
       </c>
-      <c r="E755" s="1">
+      <c r="E755">
         <v>43088</v>
       </c>
     </row>
@@ -14962,7 +14956,7 @@
       <c r="D756" t="s">
         <v>610</v>
       </c>
-      <c r="E756" s="1">
+      <c r="E756">
         <v>43088</v>
       </c>
     </row>
@@ -14979,7 +14973,7 @@
       <c r="D757" t="s">
         <v>610</v>
       </c>
-      <c r="E757" s="1">
+      <c r="E757">
         <v>43089</v>
       </c>
     </row>
@@ -14996,7 +14990,7 @@
       <c r="D758" t="s">
         <v>610</v>
       </c>
-      <c r="E758" s="1">
+      <c r="E758">
         <v>43089</v>
       </c>
     </row>
@@ -15013,7 +15007,7 @@
       <c r="D759" t="s">
         <v>610</v>
       </c>
-      <c r="E759" s="1">
+      <c r="E759">
         <v>43091</v>
       </c>
     </row>
@@ -15030,7 +15024,7 @@
       <c r="D760" t="s">
         <v>610</v>
       </c>
-      <c r="E760" s="1">
+      <c r="E760">
         <v>43091</v>
       </c>
     </row>
@@ -15047,7 +15041,7 @@
       <c r="D761" t="s">
         <v>610</v>
       </c>
-      <c r="E761" s="1">
+      <c r="E761">
         <v>43092</v>
       </c>
     </row>
@@ -15064,7 +15058,7 @@
       <c r="D762" t="s">
         <v>610</v>
       </c>
-      <c r="E762" s="1">
+      <c r="E762">
         <v>43093</v>
       </c>
     </row>
@@ -15081,7 +15075,7 @@
       <c r="D763" t="s">
         <v>610</v>
       </c>
-      <c r="E763" s="1">
+      <c r="E763">
         <v>43093</v>
       </c>
     </row>
@@ -15098,7 +15092,7 @@
       <c r="D764" t="s">
         <v>610</v>
       </c>
-      <c r="E764" s="1">
+      <c r="E764">
         <v>43093</v>
       </c>
     </row>
@@ -15115,7 +15109,7 @@
       <c r="D765" t="s">
         <v>610</v>
       </c>
-      <c r="E765" s="1">
+      <c r="E765">
         <v>43095</v>
       </c>
     </row>
@@ -15132,7 +15126,7 @@
       <c r="D766" t="s">
         <v>610</v>
       </c>
-      <c r="E766" s="1">
+      <c r="E766">
         <v>43096</v>
       </c>
     </row>
@@ -15149,7 +15143,7 @@
       <c r="D767" t="s">
         <v>610</v>
       </c>
-      <c r="E767" s="1">
+      <c r="E767">
         <v>43096</v>
       </c>
     </row>
@@ -15166,7 +15160,7 @@
       <c r="D768" t="s">
         <v>610</v>
       </c>
-      <c r="E768" s="1">
+      <c r="E768">
         <v>43098</v>
       </c>
     </row>
@@ -15183,7 +15177,7 @@
       <c r="D769" t="s">
         <v>610</v>
       </c>
-      <c r="E769" s="1">
+      <c r="E769">
         <v>43098</v>
       </c>
     </row>
@@ -15200,7 +15194,7 @@
       <c r="D770" t="s">
         <v>610</v>
       </c>
-      <c r="E770" s="1">
+      <c r="E770">
         <v>43098</v>
       </c>
     </row>
@@ -15217,7 +15211,7 @@
       <c r="D771" t="s">
         <v>610</v>
       </c>
-      <c r="E771" s="1">
+      <c r="E771">
         <v>43101</v>
       </c>
     </row>
@@ -15234,7 +15228,7 @@
       <c r="D772" t="s">
         <v>610</v>
       </c>
-      <c r="E772" s="1">
+      <c r="E772">
         <v>43101</v>
       </c>
     </row>
@@ -15251,7 +15245,7 @@
       <c r="D773" t="s">
         <v>617</v>
       </c>
-      <c r="E773" s="1">
+      <c r="E773">
         <v>42350</v>
       </c>
     </row>
@@ -15268,7 +15262,7 @@
       <c r="D774" t="s">
         <v>617</v>
       </c>
-      <c r="E774" s="1">
+      <c r="E774">
         <v>42699</v>
       </c>
     </row>
@@ -15285,7 +15279,7 @@
       <c r="D775" t="s">
         <v>617</v>
       </c>
-      <c r="E775" s="1">
+      <c r="E775">
         <v>42796</v>
       </c>
     </row>
@@ -15302,7 +15296,7 @@
       <c r="D776" t="s">
         <v>617</v>
       </c>
-      <c r="E776" s="1">
+      <c r="E776">
         <v>42796</v>
       </c>
     </row>
@@ -15319,7 +15313,7 @@
       <c r="D777" t="s">
         <v>617</v>
       </c>
-      <c r="E777" s="1">
+      <c r="E777">
         <v>42825</v>
       </c>
     </row>
@@ -15336,7 +15330,7 @@
       <c r="D778" t="s">
         <v>617</v>
       </c>
-      <c r="E778" s="1">
+      <c r="E778">
         <v>42897</v>
       </c>
     </row>
@@ -15353,7 +15347,7 @@
       <c r="D779" t="s">
         <v>617</v>
       </c>
-      <c r="E779" s="1">
+      <c r="E779">
         <v>42902</v>
       </c>
     </row>
@@ -15370,7 +15364,7 @@
       <c r="D780" t="s">
         <v>617</v>
       </c>
-      <c r="E780" s="1">
+      <c r="E780">
         <v>42907</v>
       </c>
     </row>
@@ -15387,7 +15381,7 @@
       <c r="D781" t="s">
         <v>617</v>
       </c>
-      <c r="E781" s="1">
+      <c r="E781">
         <v>42908</v>
       </c>
     </row>
@@ -15404,7 +15398,7 @@
       <c r="D782" t="s">
         <v>617</v>
       </c>
-      <c r="E782" s="1">
+      <c r="E782">
         <v>42915</v>
       </c>
     </row>
@@ -15421,7 +15415,7 @@
       <c r="D783" t="s">
         <v>617</v>
       </c>
-      <c r="E783" s="1">
+      <c r="E783">
         <v>42929</v>
       </c>
     </row>
@@ -15438,7 +15432,7 @@
       <c r="D784" t="s">
         <v>617</v>
       </c>
-      <c r="E784" s="1">
+      <c r="E784">
         <v>42934</v>
       </c>
     </row>
@@ -15455,7 +15449,7 @@
       <c r="D785" t="s">
         <v>617</v>
       </c>
-      <c r="E785" s="1">
+      <c r="E785">
         <v>42951</v>
       </c>
     </row>
@@ -15472,7 +15466,7 @@
       <c r="D786" t="s">
         <v>617</v>
       </c>
-      <c r="E786" s="1">
+      <c r="E786">
         <v>42968</v>
       </c>
     </row>
@@ -15489,7 +15483,7 @@
       <c r="D787" t="s">
         <v>617</v>
       </c>
-      <c r="E787" s="1">
+      <c r="E787">
         <v>42976</v>
       </c>
     </row>
@@ -15506,7 +15500,7 @@
       <c r="D788" t="s">
         <v>617</v>
       </c>
-      <c r="E788" s="1">
+      <c r="E788">
         <v>42985</v>
       </c>
     </row>
@@ -15523,7 +15517,7 @@
       <c r="D789" t="s">
         <v>617</v>
       </c>
-      <c r="E789" s="1">
+      <c r="E789">
         <v>42989</v>
       </c>
     </row>
@@ -15540,7 +15534,7 @@
       <c r="D790" t="s">
         <v>617</v>
       </c>
-      <c r="E790" s="1">
+      <c r="E790">
         <v>42995</v>
       </c>
     </row>
@@ -15557,7 +15551,7 @@
       <c r="D791" t="s">
         <v>617</v>
       </c>
-      <c r="E791" s="1">
+      <c r="E791">
         <v>42996</v>
       </c>
     </row>
@@ -15574,7 +15568,7 @@
       <c r="D792" t="s">
         <v>617</v>
       </c>
-      <c r="E792" s="1">
+      <c r="E792">
         <v>42998</v>
       </c>
     </row>
@@ -15591,7 +15585,7 @@
       <c r="D793" t="s">
         <v>617</v>
       </c>
-      <c r="E793" s="1">
+      <c r="E793">
         <v>43003</v>
       </c>
     </row>
@@ -15608,7 +15602,7 @@
       <c r="D794" t="s">
         <v>617</v>
       </c>
-      <c r="E794" s="1">
+      <c r="E794">
         <v>43006</v>
       </c>
     </row>
@@ -15625,7 +15619,7 @@
       <c r="D795" t="s">
         <v>617</v>
       </c>
-      <c r="E795" s="1">
+      <c r="E795">
         <v>43006</v>
       </c>
     </row>
@@ -15642,7 +15636,7 @@
       <c r="D796" t="s">
         <v>617</v>
       </c>
-      <c r="E796" s="1">
+      <c r="E796">
         <v>43013</v>
       </c>
     </row>
@@ -15659,7 +15653,7 @@
       <c r="D797" t="s">
         <v>617</v>
       </c>
-      <c r="E797" s="1">
+      <c r="E797">
         <v>43023</v>
       </c>
     </row>
@@ -15676,7 +15670,7 @@
       <c r="D798" t="s">
         <v>617</v>
       </c>
-      <c r="E798" s="1">
+      <c r="E798">
         <v>43026</v>
       </c>
     </row>
@@ -15693,7 +15687,7 @@
       <c r="D799" t="s">
         <v>617</v>
       </c>
-      <c r="E799" s="1">
+      <c r="E799">
         <v>43026</v>
       </c>
     </row>
@@ -15710,7 +15704,7 @@
       <c r="D800" t="s">
         <v>617</v>
       </c>
-      <c r="E800" s="1">
+      <c r="E800">
         <v>43027</v>
       </c>
     </row>
@@ -15727,7 +15721,7 @@
       <c r="D801" t="s">
         <v>617</v>
       </c>
-      <c r="E801" s="1">
+      <c r="E801">
         <v>43027</v>
       </c>
     </row>
@@ -15744,7 +15738,7 @@
       <c r="D802" t="s">
         <v>617</v>
       </c>
-      <c r="E802" s="1">
+      <c r="E802">
         <v>43029</v>
       </c>
     </row>
@@ -15761,7 +15755,7 @@
       <c r="D803" t="s">
         <v>617</v>
       </c>
-      <c r="E803" s="1">
+      <c r="E803">
         <v>43038</v>
       </c>
     </row>
@@ -15778,7 +15772,7 @@
       <c r="D804" t="s">
         <v>617</v>
       </c>
-      <c r="E804" s="1">
+      <c r="E804">
         <v>43038</v>
       </c>
     </row>
@@ -15795,7 +15789,7 @@
       <c r="D805" t="s">
         <v>617</v>
       </c>
-      <c r="E805" s="1">
+      <c r="E805">
         <v>43041</v>
       </c>
     </row>
@@ -15812,7 +15806,7 @@
       <c r="D806" t="s">
         <v>617</v>
       </c>
-      <c r="E806" s="1">
+      <c r="E806">
         <v>43042</v>
       </c>
     </row>
@@ -15829,7 +15823,7 @@
       <c r="D807" t="s">
         <v>617</v>
       </c>
-      <c r="E807" s="1">
+      <c r="E807">
         <v>43045</v>
       </c>
     </row>
@@ -15846,7 +15840,7 @@
       <c r="D808" t="s">
         <v>617</v>
       </c>
-      <c r="E808" s="1">
+      <c r="E808">
         <v>43045</v>
       </c>
     </row>
@@ -15863,7 +15857,7 @@
       <c r="D809" t="s">
         <v>617</v>
       </c>
-      <c r="E809" s="1">
+      <c r="E809">
         <v>43050</v>
       </c>
     </row>
@@ -15880,7 +15874,7 @@
       <c r="D810" t="s">
         <v>617</v>
       </c>
-      <c r="E810" s="1">
+      <c r="E810">
         <v>43054</v>
       </c>
     </row>
@@ -15897,7 +15891,7 @@
       <c r="D811" t="s">
         <v>617</v>
       </c>
-      <c r="E811" s="1">
+      <c r="E811">
         <v>43055</v>
       </c>
     </row>
@@ -15914,7 +15908,7 @@
       <c r="D812" t="s">
         <v>617</v>
       </c>
-      <c r="E812" s="1">
+      <c r="E812">
         <v>43063</v>
       </c>
     </row>
@@ -15931,7 +15925,7 @@
       <c r="D813" t="s">
         <v>617</v>
       </c>
-      <c r="E813" s="1">
+      <c r="E813">
         <v>43063</v>
       </c>
     </row>
@@ -15948,7 +15942,7 @@
       <c r="D814" t="s">
         <v>617</v>
       </c>
-      <c r="E814" s="1">
+      <c r="E814">
         <v>43063</v>
       </c>
     </row>
@@ -15965,7 +15959,7 @@
       <c r="D815" t="s">
         <v>617</v>
       </c>
-      <c r="E815" s="1">
+      <c r="E815">
         <v>43065</v>
       </c>
     </row>
@@ -15982,7 +15976,7 @@
       <c r="D816" t="s">
         <v>617</v>
       </c>
-      <c r="E816" s="1">
+      <c r="E816">
         <v>43067</v>
       </c>
     </row>
@@ -15999,7 +15993,7 @@
       <c r="D817" t="s">
         <v>617</v>
       </c>
-      <c r="E817" s="1">
+      <c r="E817">
         <v>43067</v>
       </c>
     </row>
@@ -16016,7 +16010,7 @@
       <c r="D818" t="s">
         <v>617</v>
       </c>
-      <c r="E818" s="1">
+      <c r="E818">
         <v>43070</v>
       </c>
     </row>
@@ -16033,7 +16027,7 @@
       <c r="D819" t="s">
         <v>617</v>
       </c>
-      <c r="E819" s="1">
+      <c r="E819">
         <v>43070</v>
       </c>
     </row>
@@ -16050,7 +16044,7 @@
       <c r="D820" t="s">
         <v>617</v>
       </c>
-      <c r="E820" s="1">
+      <c r="E820">
         <v>43073</v>
       </c>
     </row>
@@ -16067,7 +16061,7 @@
       <c r="D821" t="s">
         <v>617</v>
       </c>
-      <c r="E821" s="1">
+      <c r="E821">
         <v>43073</v>
       </c>
     </row>
@@ -16084,7 +16078,7 @@
       <c r="D822" t="s">
         <v>617</v>
       </c>
-      <c r="E822" s="1">
+      <c r="E822">
         <v>43073</v>
       </c>
     </row>
@@ -16101,7 +16095,7 @@
       <c r="D823" t="s">
         <v>617</v>
       </c>
-      <c r="E823" s="1">
+      <c r="E823">
         <v>43075</v>
       </c>
     </row>
@@ -16118,7 +16112,7 @@
       <c r="D824" t="s">
         <v>617</v>
       </c>
-      <c r="E824" s="1">
+      <c r="E824">
         <v>43075</v>
       </c>
     </row>
@@ -16135,7 +16129,7 @@
       <c r="D825" t="s">
         <v>617</v>
       </c>
-      <c r="E825" s="1">
+      <c r="E825">
         <v>43082</v>
       </c>
     </row>
@@ -16152,7 +16146,7 @@
       <c r="D826" t="s">
         <v>617</v>
       </c>
-      <c r="E826" s="1">
+      <c r="E826">
         <v>43082</v>
       </c>
     </row>
@@ -16169,7 +16163,7 @@
       <c r="D827" t="s">
         <v>617</v>
       </c>
-      <c r="E827" s="1">
+      <c r="E827">
         <v>43084</v>
       </c>
     </row>
@@ -16186,7 +16180,7 @@
       <c r="D828" t="s">
         <v>617</v>
       </c>
-      <c r="E828" s="1">
+      <c r="E828">
         <v>43086</v>
       </c>
     </row>
@@ -16203,7 +16197,7 @@
       <c r="D829" t="s">
         <v>617</v>
       </c>
-      <c r="E829" s="1">
+      <c r="E829">
         <v>43086</v>
       </c>
     </row>
@@ -16220,7 +16214,7 @@
       <c r="D830" t="s">
         <v>617</v>
       </c>
-      <c r="E830" s="1">
+      <c r="E830">
         <v>43088</v>
       </c>
     </row>
@@ -16237,7 +16231,7 @@
       <c r="D831" t="s">
         <v>617</v>
       </c>
-      <c r="E831" s="1">
+      <c r="E831">
         <v>43089</v>
       </c>
     </row>
@@ -16254,7 +16248,7 @@
       <c r="D832" t="s">
         <v>617</v>
       </c>
-      <c r="E832" s="1">
+      <c r="E832">
         <v>43089</v>
       </c>
     </row>
@@ -16271,7 +16265,7 @@
       <c r="D833" t="s">
         <v>617</v>
       </c>
-      <c r="E833" s="1">
+      <c r="E833">
         <v>43091</v>
       </c>
     </row>
@@ -16288,7 +16282,7 @@
       <c r="D834" t="s">
         <v>617</v>
       </c>
-      <c r="E834" s="1">
+      <c r="E834">
         <v>43091</v>
       </c>
     </row>
@@ -16305,7 +16299,7 @@
       <c r="D835" t="s">
         <v>617</v>
       </c>
-      <c r="E835" s="1">
+      <c r="E835">
         <v>43094</v>
       </c>
     </row>
@@ -16322,7 +16316,7 @@
       <c r="D836" t="s">
         <v>617</v>
       </c>
-      <c r="E836" s="1">
+      <c r="E836">
         <v>43096</v>
       </c>
     </row>
@@ -16339,7 +16333,7 @@
       <c r="D837" t="s">
         <v>617</v>
       </c>
-      <c r="E837" s="1">
+      <c r="E837">
         <v>43101</v>
       </c>
     </row>
@@ -16356,7 +16350,7 @@
       <c r="D838" t="s">
         <v>617</v>
       </c>
-      <c r="E838" s="1">
+      <c r="E838">
         <v>43101</v>
       </c>
     </row>
@@ -16373,7 +16367,7 @@
       <c r="D839" t="s">
         <v>618</v>
       </c>
-      <c r="E839" s="1">
+      <c r="E839">
         <v>42795</v>
       </c>
     </row>
@@ -16390,7 +16384,7 @@
       <c r="D840" t="s">
         <v>618</v>
       </c>
-      <c r="E840" s="1">
+      <c r="E840">
         <v>42947</v>
       </c>
     </row>
@@ -16407,7 +16401,7 @@
       <c r="D841" t="s">
         <v>618</v>
       </c>
-      <c r="E841" s="1">
+      <c r="E841">
         <v>43006</v>
       </c>
     </row>
@@ -16424,7 +16418,7 @@
       <c r="D842" t="s">
         <v>618</v>
       </c>
-      <c r="E842" s="1">
+      <c r="E842">
         <v>43031</v>
       </c>
     </row>
@@ -16441,7 +16435,7 @@
       <c r="D843" t="s">
         <v>618</v>
       </c>
-      <c r="E843" s="1">
+      <c r="E843">
         <v>43035</v>
       </c>
     </row>
@@ -16458,7 +16452,7 @@
       <c r="D844" t="s">
         <v>618</v>
       </c>
-      <c r="E844" s="1">
+      <c r="E844">
         <v>43039</v>
       </c>
     </row>
@@ -16475,7 +16469,7 @@
       <c r="D845" t="s">
         <v>618</v>
       </c>
-      <c r="E845" s="1">
+      <c r="E845">
         <v>43045</v>
       </c>
     </row>
@@ -16492,7 +16486,7 @@
       <c r="D846" t="s">
         <v>618</v>
       </c>
-      <c r="E846" s="1">
+      <c r="E846">
         <v>43058</v>
       </c>
     </row>
@@ -16509,7 +16503,7 @@
       <c r="D847" t="s">
         <v>618</v>
       </c>
-      <c r="E847" s="1">
+      <c r="E847">
         <v>43064</v>
       </c>
     </row>
@@ -16526,7 +16520,7 @@
       <c r="D848" t="s">
         <v>618</v>
       </c>
-      <c r="E848" s="1">
+      <c r="E848">
         <v>43082</v>
       </c>
     </row>
@@ -16543,7 +16537,7 @@
       <c r="D849" t="s">
         <v>618</v>
       </c>
-      <c r="E849" s="1">
+      <c r="E849">
         <v>43087</v>
       </c>
     </row>
@@ -16560,7 +16554,7 @@
       <c r="D850" t="s">
         <v>618</v>
       </c>
-      <c r="E850" s="1">
+      <c r="E850">
         <v>43095</v>
       </c>
     </row>
@@ -16577,7 +16571,7 @@
       <c r="D851" t="s">
         <v>442</v>
       </c>
-      <c r="E851" s="1" t="s">
+      <c r="E851" t="s">
         <v>443</v>
       </c>
     </row>
@@ -16594,7 +16588,7 @@
       <c r="D852" t="s">
         <v>442</v>
       </c>
-      <c r="E852" s="1" t="s">
+      <c r="E852" t="s">
         <v>445</v>
       </c>
     </row>
@@ -16611,7 +16605,7 @@
       <c r="D853" t="s">
         <v>442</v>
       </c>
-      <c r="E853" s="1" t="s">
+      <c r="E853" t="s">
         <v>445</v>
       </c>
     </row>
@@ -16628,7 +16622,7 @@
       <c r="D854" t="s">
         <v>442</v>
       </c>
-      <c r="E854" s="1" t="s">
+      <c r="E854" t="s">
         <v>446</v>
       </c>
     </row>
@@ -16645,7 +16639,7 @@
       <c r="D855" t="s">
         <v>442</v>
       </c>
-      <c r="E855" s="1" t="s">
+      <c r="E855" t="s">
         <v>446</v>
       </c>
     </row>
@@ -16662,7 +16656,7 @@
       <c r="D856" t="s">
         <v>442</v>
       </c>
-      <c r="E856" s="1" t="s">
+      <c r="E856" t="s">
         <v>320</v>
       </c>
     </row>
@@ -16679,7 +16673,7 @@
       <c r="D857" t="s">
         <v>442</v>
       </c>
-      <c r="E857" s="1" t="s">
+      <c r="E857" t="s">
         <v>320</v>
       </c>
     </row>
@@ -16696,7 +16690,7 @@
       <c r="D858" t="s">
         <v>442</v>
       </c>
-      <c r="E858" s="1" t="s">
+      <c r="E858" t="s">
         <v>448</v>
       </c>
     </row>
@@ -16713,7 +16707,7 @@
       <c r="D859" t="s">
         <v>442</v>
       </c>
-      <c r="E859" s="1" t="s">
+      <c r="E859" t="s">
         <v>449</v>
       </c>
     </row>
@@ -16730,7 +16724,7 @@
       <c r="D860" t="s">
         <v>442</v>
       </c>
-      <c r="E860" s="1" t="s">
+      <c r="E860" t="s">
         <v>315</v>
       </c>
     </row>
@@ -16747,7 +16741,7 @@
       <c r="D861" t="s">
         <v>442</v>
       </c>
-      <c r="E861" s="1" t="s">
+      <c r="E861" t="s">
         <v>452</v>
       </c>
     </row>
@@ -16764,7 +16758,7 @@
       <c r="D862" t="s">
         <v>442</v>
       </c>
-      <c r="E862" s="1" t="s">
+      <c r="E862" t="s">
         <v>452</v>
       </c>
     </row>
@@ -16781,7 +16775,7 @@
       <c r="D863" t="s">
         <v>442</v>
       </c>
-      <c r="E863" s="1" t="s">
+      <c r="E863" t="s">
         <v>453</v>
       </c>
     </row>
@@ -16798,7 +16792,7 @@
       <c r="D864" t="s">
         <v>442</v>
       </c>
-      <c r="E864" s="1" t="s">
+      <c r="E864" t="s">
         <v>454</v>
       </c>
     </row>
@@ -16815,7 +16809,7 @@
       <c r="D865" t="s">
         <v>442</v>
       </c>
-      <c r="E865" s="1" t="s">
+      <c r="E865" t="s">
         <v>454</v>
       </c>
     </row>
@@ -16832,7 +16826,7 @@
       <c r="D866" t="s">
         <v>442</v>
       </c>
-      <c r="E866" s="1" t="s">
+      <c r="E866" t="s">
         <v>457</v>
       </c>
     </row>
@@ -16849,7 +16843,7 @@
       <c r="D867" t="s">
         <v>442</v>
       </c>
-      <c r="E867" s="1" t="s">
+      <c r="E867" t="s">
         <v>459</v>
       </c>
     </row>
@@ -16866,7 +16860,7 @@
       <c r="D868" t="s">
         <v>442</v>
       </c>
-      <c r="E868" s="1" t="s">
+      <c r="E868" t="s">
         <v>460</v>
       </c>
     </row>
@@ -16883,7 +16877,7 @@
       <c r="D869" t="s">
         <v>442</v>
       </c>
-      <c r="E869" s="1" t="s">
+      <c r="E869" t="s">
         <v>461</v>
       </c>
     </row>
@@ -16900,7 +16894,7 @@
       <c r="D870" t="s">
         <v>442</v>
       </c>
-      <c r="E870" s="1" t="s">
+      <c r="E870" t="s">
         <v>462</v>
       </c>
     </row>
@@ -16917,7 +16911,7 @@
       <c r="D871" t="s">
         <v>442</v>
       </c>
-      <c r="E871" s="1" t="s">
+      <c r="E871" t="s">
         <v>463</v>
       </c>
     </row>
@@ -16934,7 +16928,7 @@
       <c r="D872" t="s">
         <v>442</v>
       </c>
-      <c r="E872" s="1" t="s">
+      <c r="E872" t="s">
         <v>464</v>
       </c>
     </row>
@@ -16951,7 +16945,7 @@
       <c r="D873" t="s">
         <v>442</v>
       </c>
-      <c r="E873" s="1" t="s">
+      <c r="E873" t="s">
         <v>464</v>
       </c>
     </row>
@@ -16968,7 +16962,7 @@
       <c r="D874" t="s">
         <v>442</v>
       </c>
-      <c r="E874" s="1" t="s">
+      <c r="E874" t="s">
         <v>464</v>
       </c>
     </row>
@@ -16985,7 +16979,7 @@
       <c r="D875" t="s">
         <v>442</v>
       </c>
-      <c r="E875" s="1" t="s">
+      <c r="E875" t="s">
         <v>465</v>
       </c>
     </row>
@@ -17002,7 +16996,7 @@
       <c r="D876" t="s">
         <v>442</v>
       </c>
-      <c r="E876" s="1" t="s">
+      <c r="E876" t="s">
         <v>467</v>
       </c>
     </row>
@@ -17019,7 +17013,7 @@
       <c r="D877" t="s">
         <v>442</v>
       </c>
-      <c r="E877" s="1" t="s">
+      <c r="E877" t="s">
         <v>469</v>
       </c>
     </row>
@@ -17036,7 +17030,7 @@
       <c r="D878" t="s">
         <v>442</v>
       </c>
-      <c r="E878" s="1" t="s">
+      <c r="E878" t="s">
         <v>471</v>
       </c>
     </row>
@@ -17053,7 +17047,7 @@
       <c r="D879" t="s">
         <v>442</v>
       </c>
-      <c r="E879" s="1" t="s">
+      <c r="E879" t="s">
         <v>472</v>
       </c>
     </row>
@@ -17070,7 +17064,7 @@
       <c r="D880" t="s">
         <v>442</v>
       </c>
-      <c r="E880" s="1" t="s">
+      <c r="E880" t="s">
         <v>473</v>
       </c>
     </row>
@@ -17087,7 +17081,7 @@
       <c r="D881" t="s">
         <v>442</v>
       </c>
-      <c r="E881" s="1" t="s">
+      <c r="E881" t="s">
         <v>476</v>
       </c>
     </row>
@@ -17104,7 +17098,7 @@
       <c r="D882" t="s">
         <v>442</v>
       </c>
-      <c r="E882" s="1" t="s">
+      <c r="E882" t="s">
         <v>478</v>
       </c>
     </row>
@@ -17121,7 +17115,7 @@
       <c r="D883" t="s">
         <v>442</v>
       </c>
-      <c r="E883" s="1" t="s">
+      <c r="E883" t="s">
         <v>479</v>
       </c>
     </row>
@@ -17138,7 +17132,7 @@
       <c r="D884" t="s">
         <v>442</v>
       </c>
-      <c r="E884" s="1" t="s">
+      <c r="E884" t="s">
         <v>480</v>
       </c>
     </row>
@@ -17155,7 +17149,7 @@
       <c r="D885" t="s">
         <v>442</v>
       </c>
-      <c r="E885" s="1" t="s">
+      <c r="E885" t="s">
         <v>481</v>
       </c>
     </row>
@@ -17172,7 +17166,7 @@
       <c r="D886" t="s">
         <v>442</v>
       </c>
-      <c r="E886" s="1" t="s">
+      <c r="E886" t="s">
         <v>482</v>
       </c>
     </row>
@@ -17189,7 +17183,7 @@
       <c r="D887" t="s">
         <v>442</v>
       </c>
-      <c r="E887" s="1" t="s">
+      <c r="E887" t="s">
         <v>484</v>
       </c>
     </row>
@@ -17206,7 +17200,7 @@
       <c r="D888" t="s">
         <v>442</v>
       </c>
-      <c r="E888" s="1" t="s">
+      <c r="E888" t="s">
         <v>485</v>
       </c>
     </row>
@@ -17223,7 +17217,7 @@
       <c r="D889" t="s">
         <v>442</v>
       </c>
-      <c r="E889" s="1">
+      <c r="E889">
         <v>2017.9</v>
       </c>
     </row>
@@ -17240,7 +17234,7 @@
       <c r="D890" t="s">
         <v>442</v>
       </c>
-      <c r="E890" s="1" t="s">
+      <c r="E890" t="s">
         <v>486</v>
       </c>
     </row>
@@ -17257,7 +17251,7 @@
       <c r="D891" t="s">
         <v>442</v>
       </c>
-      <c r="E891" s="1" t="s">
+      <c r="E891" t="s">
         <v>487</v>
       </c>
     </row>
@@ -17274,7 +17268,7 @@
       <c r="D892" t="s">
         <v>442</v>
       </c>
-      <c r="E892" s="1" t="s">
+      <c r="E892" t="s">
         <v>488</v>
       </c>
     </row>
@@ -17291,7 +17285,7 @@
       <c r="D893" t="s">
         <v>442</v>
       </c>
-      <c r="E893" s="1" t="s">
+      <c r="E893" t="s">
         <v>491</v>
       </c>
     </row>
@@ -17308,7 +17302,7 @@
       <c r="D894" t="s">
         <v>442</v>
       </c>
-      <c r="E894" s="1" t="s">
+      <c r="E894" t="s">
         <v>492</v>
       </c>
     </row>
@@ -17325,7 +17319,7 @@
       <c r="D895" t="s">
         <v>442</v>
       </c>
-      <c r="E895" s="1" t="s">
+      <c r="E895" t="s">
         <v>492</v>
       </c>
     </row>
@@ -17342,7 +17336,7 @@
       <c r="D896" t="s">
         <v>442</v>
       </c>
-      <c r="E896" s="1" t="s">
+      <c r="E896" t="s">
         <v>493</v>
       </c>
     </row>
@@ -17359,7 +17353,7 @@
       <c r="D897" t="s">
         <v>442</v>
       </c>
-      <c r="E897" s="1" t="s">
+      <c r="E897" t="s">
         <v>493</v>
       </c>
     </row>
@@ -17376,7 +17370,7 @@
       <c r="D898" t="s">
         <v>442</v>
       </c>
-      <c r="E898" s="1" t="s">
+      <c r="E898" t="s">
         <v>494</v>
       </c>
     </row>
@@ -17393,7 +17387,7 @@
       <c r="D899" t="s">
         <v>442</v>
       </c>
-      <c r="E899" s="1" t="s">
+      <c r="E899" t="s">
         <v>495</v>
       </c>
     </row>
@@ -17410,7 +17404,7 @@
       <c r="D900" t="s">
         <v>442</v>
       </c>
-      <c r="E900" s="1" t="s">
+      <c r="E900" t="s">
         <v>449</v>
       </c>
     </row>
@@ -17427,7 +17421,7 @@
       <c r="D901" t="s">
         <v>442</v>
       </c>
-      <c r="E901" s="1" t="s">
+      <c r="E901" t="s">
         <v>325</v>
       </c>
     </row>
@@ -17444,7 +17438,7 @@
       <c r="D902" t="s">
         <v>442</v>
       </c>
-      <c r="E902" s="1" t="s">
+      <c r="E902" t="s">
         <v>497</v>
       </c>
     </row>
@@ -17461,7 +17455,7 @@
       <c r="D903" t="s">
         <v>442</v>
       </c>
-      <c r="E903" s="1" t="s">
+      <c r="E903" t="s">
         <v>498</v>
       </c>
     </row>
@@ -17478,7 +17472,7 @@
       <c r="D904" t="s">
         <v>442</v>
       </c>
-      <c r="E904" s="1" t="s">
+      <c r="E904" t="s">
         <v>323</v>
       </c>
     </row>
@@ -17495,7 +17489,7 @@
       <c r="D905" t="s">
         <v>442</v>
       </c>
-      <c r="E905" s="1" t="s">
+      <c r="E905" t="s">
         <v>464</v>
       </c>
     </row>
@@ -17512,7 +17506,7 @@
       <c r="D906" t="s">
         <v>442</v>
       </c>
-      <c r="E906" s="1" t="s">
+      <c r="E906" t="s">
         <v>500</v>
       </c>
     </row>
@@ -17529,7 +17523,7 @@
       <c r="D907" t="s">
         <v>442</v>
       </c>
-      <c r="E907" s="1" t="s">
+      <c r="E907" t="s">
         <v>452</v>
       </c>
     </row>
@@ -17546,7 +17540,7 @@
       <c r="D908" t="s">
         <v>442</v>
       </c>
-      <c r="E908" s="1" t="s">
+      <c r="E908" t="s">
         <v>452</v>
       </c>
     </row>
@@ -17563,7 +17557,7 @@
       <c r="D909" t="s">
         <v>442</v>
       </c>
-      <c r="E909" s="1" t="s">
+      <c r="E909" t="s">
         <v>503</v>
       </c>
     </row>
@@ -17580,7 +17574,7 @@
       <c r="D910" t="s">
         <v>442</v>
       </c>
-      <c r="E910" s="1" t="s">
+      <c r="E910" t="s">
         <v>320</v>
       </c>
     </row>
@@ -17597,7 +17591,7 @@
       <c r="D911" t="s">
         <v>442</v>
       </c>
-      <c r="E911" s="1" t="s">
+      <c r="E911" t="s">
         <v>506</v>
       </c>
     </row>
@@ -17614,7 +17608,7 @@
       <c r="D912" t="s">
         <v>442</v>
       </c>
-      <c r="E912" s="1" t="s">
+      <c r="E912" t="s">
         <v>508</v>
       </c>
     </row>
@@ -17631,7 +17625,7 @@
       <c r="D913" t="s">
         <v>442</v>
       </c>
-      <c r="E913" s="1" t="s">
+      <c r="E913" t="s">
         <v>508</v>
       </c>
     </row>
@@ -17648,7 +17642,7 @@
       <c r="D914" t="s">
         <v>442</v>
       </c>
-      <c r="E914" s="1" t="s">
+      <c r="E914" t="s">
         <v>492</v>
       </c>
     </row>
@@ -17665,7 +17659,7 @@
       <c r="D915" t="s">
         <v>442</v>
       </c>
-      <c r="E915" s="1" t="s">
+      <c r="E915" t="s">
         <v>291</v>
       </c>
     </row>
@@ -17682,7 +17676,7 @@
       <c r="D916" t="s">
         <v>442</v>
       </c>
-      <c r="E916" s="1" t="s">
+      <c r="E916" t="s">
         <v>511</v>
       </c>
     </row>
@@ -17699,7 +17693,7 @@
       <c r="D917" t="s">
         <v>442</v>
       </c>
-      <c r="E917" s="1" t="s">
+      <c r="E917" t="s">
         <v>315</v>
       </c>
     </row>
@@ -17716,7 +17710,7 @@
       <c r="D918" t="s">
         <v>442</v>
       </c>
-      <c r="E918" s="1" t="s">
+      <c r="E918" t="s">
         <v>513</v>
       </c>
     </row>
@@ -17733,7 +17727,7 @@
       <c r="D919" t="s">
         <v>442</v>
       </c>
-      <c r="E919" s="1" t="s">
+      <c r="E919" t="s">
         <v>448</v>
       </c>
     </row>
@@ -17750,7 +17744,7 @@
       <c r="D920" t="s">
         <v>442</v>
       </c>
-      <c r="E920" s="1" t="s">
+      <c r="E920" t="s">
         <v>449</v>
       </c>
     </row>
@@ -17767,7 +17761,7 @@
       <c r="D921" t="s">
         <v>442</v>
       </c>
-      <c r="E921" s="1" t="s">
+      <c r="E921" t="s">
         <v>514</v>
       </c>
     </row>
@@ -17784,7 +17778,7 @@
       <c r="D922" t="s">
         <v>442</v>
       </c>
-      <c r="E922" s="1" t="s">
+      <c r="E922" t="s">
         <v>515</v>
       </c>
     </row>
@@ -17801,7 +17795,7 @@
       <c r="D923" t="s">
         <v>442</v>
       </c>
-      <c r="E923" s="1" t="s">
+      <c r="E923" t="s">
         <v>515</v>
       </c>
     </row>
@@ -17818,7 +17812,7 @@
       <c r="D924" t="s">
         <v>442</v>
       </c>
-      <c r="E924" s="1" t="s">
+      <c r="E924" t="s">
         <v>518</v>
       </c>
     </row>
@@ -17835,7 +17829,7 @@
       <c r="D925" t="s">
         <v>442</v>
       </c>
-      <c r="E925" s="1" t="s">
+      <c r="E925" t="s">
         <v>519</v>
       </c>
     </row>
@@ -17852,7 +17846,7 @@
       <c r="D926" t="s">
         <v>442</v>
       </c>
-      <c r="E926" s="1" t="s">
+      <c r="E926" t="s">
         <v>519</v>
       </c>
     </row>
@@ -17869,7 +17863,7 @@
       <c r="D927" t="s">
         <v>442</v>
       </c>
-      <c r="E927" s="1" t="s">
+      <c r="E927" t="s">
         <v>323</v>
       </c>
     </row>
@@ -17886,7 +17880,7 @@
       <c r="D928" t="s">
         <v>442</v>
       </c>
-      <c r="E928" s="1" t="s">
+      <c r="E928" t="s">
         <v>522</v>
       </c>
     </row>
@@ -17903,7 +17897,7 @@
       <c r="D929" t="s">
         <v>442</v>
       </c>
-      <c r="E929" s="1" t="s">
+      <c r="E929" t="s">
         <v>522</v>
       </c>
     </row>
@@ -17920,7 +17914,7 @@
       <c r="D930" t="s">
         <v>442</v>
       </c>
-      <c r="E930" s="1" t="s">
+      <c r="E930" t="s">
         <v>464</v>
       </c>
     </row>
@@ -17937,7 +17931,7 @@
       <c r="D931" t="s">
         <v>442</v>
       </c>
-      <c r="E931" s="1" t="s">
+      <c r="E931" t="s">
         <v>319</v>
       </c>
     </row>
@@ -17954,7 +17948,7 @@
       <c r="D932" t="s">
         <v>442</v>
       </c>
-      <c r="E932" s="1" t="s">
+      <c r="E932" t="s">
         <v>524</v>
       </c>
     </row>
@@ -17971,7 +17965,7 @@
       <c r="D933" t="s">
         <v>442</v>
       </c>
-      <c r="E933" s="1" t="s">
+      <c r="E933" t="s">
         <v>452</v>
       </c>
     </row>
@@ -17988,7 +17982,7 @@
       <c r="D934" t="s">
         <v>442</v>
       </c>
-      <c r="E934" s="1" t="s">
+      <c r="E934" t="s">
         <v>401</v>
       </c>
     </row>
@@ -18005,7 +17999,7 @@
       <c r="D935" t="s">
         <v>442</v>
       </c>
-      <c r="E935" s="1" t="s">
+      <c r="E935" t="s">
         <v>401</v>
       </c>
     </row>
@@ -18022,7 +18016,7 @@
       <c r="D936" t="s">
         <v>442</v>
       </c>
-      <c r="E936" s="1" t="s">
+      <c r="E936" t="s">
         <v>526</v>
       </c>
     </row>
@@ -18039,7 +18033,7 @@
       <c r="D937" t="s">
         <v>442</v>
       </c>
-      <c r="E937" s="1" t="s">
+      <c r="E937" t="s">
         <v>526</v>
       </c>
     </row>
@@ -18056,7 +18050,7 @@
       <c r="D938" t="s">
         <v>442</v>
       </c>
-      <c r="E938" s="1" t="s">
+      <c r="E938" t="s">
         <v>526</v>
       </c>
     </row>
@@ -18073,7 +18067,7 @@
       <c r="D939" t="s">
         <v>442</v>
       </c>
-      <c r="E939" s="1" t="s">
+      <c r="E939" t="s">
         <v>526</v>
       </c>
     </row>
@@ -18090,7 +18084,7 @@
       <c r="D940" t="s">
         <v>442</v>
       </c>
-      <c r="E940" s="1" t="s">
+      <c r="E940" t="s">
         <v>529</v>
       </c>
     </row>
@@ -18107,7 +18101,7 @@
       <c r="D941" t="s">
         <v>442</v>
       </c>
-      <c r="E941" s="1" t="s">
+      <c r="E941" t="s">
         <v>531</v>
       </c>
     </row>
